--- a/resultados_totales.xlsx
+++ b/resultados_totales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="953">
   <si>
     <t>URL</t>
   </si>
@@ -70,6 +70,420 @@
     <t>https://amarillas.emol.com/empresa/2001911/bck-abogadosy-contadores-auditores</t>
   </si>
   <si>
+    <t>https://amarillas.emol.com/empresa/2001904/bcg-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001909/bcm-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000582/abogados-lex-juicios</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000929/abogados-maipu</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001910/bck-abogados-y-contadores-auditores</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001908/bck-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/524943/sarmiento-nunez-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000884/abogados-tributarios-san-sebastian</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001421/receptora-esperguel</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000050/urrutia-letelier-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001907/bcg-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31549/centro-de-mediacion-bicentenario</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001127/rodriguez-abogado-defensor-penal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001906/bcg-contadores-auditores-y-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000053/pleito-laboral-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000560/hans-meyer-beltran</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000806/campos-y-cia-abogados-sebastian-campos-miranda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001520/luis-urrutia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001912/bck-abogados-y-contadores-auditores</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/32396/abogados-r-r</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002230/bg-bustos-gomez-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002135/estudio-juridico-segovia-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/30986/clark-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/24570/carlos-s-arce-cornejo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31878/estudio-juridico-asesorias-accion-legal-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31798/estudio-juridico-santis-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/28479/abogado-laboral-rodrigo-munoz-sandrock</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/29074/estudio-juridico-del-trabajador</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/29229/parot-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/32394/estudio-juridico-defiende-tu-familia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31953/sarmiento-nunez-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/24893/abogada-johana-godoy-escobar</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/32171/geisse-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002317/latorre-cia-abogados-tributarios</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/28320/abogado-rodrigo-sepulveda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/120058/hagedorn-y-belmar-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2231/tapia-elorza-y-compania-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/26152/estudio-juridico-valderrama-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001290/abogados-diaz-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31563/abogado-orietta-rodriguez---identidad-legal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/31336/demanda-colectiva-afp</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/32242/abogado-tributario-let</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000825/abogados-puconcl</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002147/abogados-barraza-rojas-cia-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2000603/abogado-nicolas-arismendi</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/341864/peralta-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300524430/hay-solucion</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2002430/masabogadoscl</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300475470/abogados-valdivia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001658/optima-defensa</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300316809/abogado-sergio-diaz</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300523637/alvarez-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300518502/becker-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/2001174/estudio-juridico-v-v</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300338502/julio-rojas-benavente-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300519385/abogados-de-familia-rancagua</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300234989/herrera-sanchez-marcelo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300070713/guerrero-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300097398/ansaldi-dominguez-carmen</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300123120/estudio-dellafiori</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300281671/bravo-y-cia-rodrigo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300157861/tuane-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300316951/sota-abogada</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300524282/lzm-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300227810/uribe-etxverria-y-cia-ltda-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300318435/organismo-tecnico-de-capacitacion-y-abogado-patricio-cornejo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300518859/antonio-arriagada-jaramillo-abogado</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300448134/abogados-asociados-cia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300352552/abogados-guido-sepulveda-y-cia-ltda-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300450330/juan-pablo-iturriaga-cavieres-abogado</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300123107/bunster-henriquez-katiushka</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300258241/ulloa-monge-schubert-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300123080/advis-mondaca-ricardo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300333029/estudio-juridico-quasar</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300252936/retamal-grimberg-maria-loreto</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300151084/rubio-ruiz-de-gamboa-carlos</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300071162/lewin-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300353700/estudio-juridico-acevedo-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300232806/daguerressar-caldera-carlos-andres</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300253559/caceres-squella-gabriel-eduardo-o-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300155642/abogados-asesores-y-consultores</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300066494/abuauad-cia-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300097512/bravo-tesseo-jorge</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300209205/bufete-de-abogados-ohiggins</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300520151/area-judicial</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300082875/vicente-estudio-juridico</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300283947/soza-y-cia-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300201401/rabuco-canas-ricardo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300260899/estudio-juridico-veronica-bustamante</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300299325/abogados-estudio-juridico-robinson-quelin</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300313652/daslav-omerovic-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300123175/raposo-rojas-alberto</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300240852/steuer-stehn-helmuth</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300448224/l-h-abogados-ltda</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300076316/rogel-y-asociados-anibal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300443564/orlando-poblete-y-compania-limitada</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300307800/contreras-fuentes-carlos</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300146242/jerez-davila-juan-jose</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300157343/cortes-tapia-patricia</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300450469/sebastian-tello-mura</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300333134/consultora-legal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300097618/de-iruarrizaga-arnaiz-y-cia-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300281642/estudio-juridico-naranjo-y-asociados-ltda-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300346537/abogada-elizabeth-kobus</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300081488/galvez-llanos-jorge-eduardo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300443658/estudio-juridico-ruben-diaz-y-asociados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300000147/johansson-langlois</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300105566/abogado-daniel-guevara-cortes</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300297202/mcys-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300098600/rencoret-balbontin-andres</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300524586/estudio-juridico-defensa-go</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300268682/barra-y-cia-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300178907/vergara-labarca-cia-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300103833/transunion-soluciones-de-informacion-chile-s-a</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300237505/estudio-munoz-pirtzl-ltda-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300203171/iturra-astudillo-fernando-fidel</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300202917/gestab</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300088506/juicios-laborales-mario-garay-martinez</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300340788/abogadas-laboralistas</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300097806/holzapfel-gross-gaston</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300268641/jean-pierre-matus</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300521633/estudio-juridico-hernandez-villegas</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300294066/asesoria-legal-comercial-y-n-ltda-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300314972/asesorias-legales</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300203154/bordachar-urrutia-rodrigo</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300253539/dyp-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300227583/jimenez-trejo-patricio</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300344309/abogados-del-maule</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300346548/pomar-carrasco-y-compania-limitada</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300120059/perez-correa-y-sanguino-ltda-</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300240043/albornoz-pollmann-abogados</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300002003/yuseff-y-compania</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300352550/abogados-hugo-ciro-cabrera-torres</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300339798/aseo-industrial-alondra</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300357861/miss-legal</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300318519/abogados-debia-y-figueroa</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300261642/perez-cotapos-contreras-juan-jose</t>
+  </si>
+  <si>
+    <t>https://amarillas.emol.com/empresa/300316449/abogado-patricio-martinez-fuentes</t>
+  </si>
+  <si>
     <t>Abogado Sergio Diaz</t>
   </si>
   <si>
@@ -85,6 +499,408 @@
     <t>BCK  ABOGADOSY CONTADORES AUDITORES</t>
   </si>
   <si>
+    <t>BCG CONTADORES AUDITORES Y ABOGADOS</t>
+  </si>
+  <si>
+    <t>BCM CONTADORES AUDITORES Y ABOGADOS</t>
+  </si>
+  <si>
+    <t>abogados lex juicios</t>
+  </si>
+  <si>
+    <t>Abogados Maipu</t>
+  </si>
+  <si>
+    <t>BCK  ABOGADOS Y CONTADORES AUDITORES</t>
+  </si>
+  <si>
+    <t>BCK CONTADORES AUDITORES Y ABOGADOS</t>
+  </si>
+  <si>
+    <t>Sarmiento &amp; Núñez Abogados</t>
+  </si>
+  <si>
+    <t>ABOGADOS TRIBUTARIOS SAN SEBASTIAN</t>
+  </si>
+  <si>
+    <t>RECEPTORA  ESPERGUEL</t>
+  </si>
+  <si>
+    <t>Urrutia Letelier Abogados</t>
+  </si>
+  <si>
+    <t>Centro de Mediación Bicentenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez Abogado Defensor Penal </t>
+  </si>
+  <si>
+    <t>Pleito Laboral Abogados</t>
+  </si>
+  <si>
+    <t>HANS MEYER BELTRAN</t>
+  </si>
+  <si>
+    <t>CAMPOS Y CIA ABOGADOS SEBASTIAN CAMPOS MIRANDA</t>
+  </si>
+  <si>
+    <t>Abogados Luis  Urrutia</t>
+  </si>
+  <si>
+    <t>Abogados R &amp; R</t>
+  </si>
+  <si>
+    <t>BG Bustos Gómez Abogados</t>
+  </si>
+  <si>
+    <t>ESTUDIO JURIDICO "SEGOVIA &amp; ASOCIADOS"</t>
+  </si>
+  <si>
+    <t>Clark &amp; Cía Abogados</t>
+  </si>
+  <si>
+    <t>Carlos S Arce Cornejo</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico Asesorías Acción Legal Abogados</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico Santis y Asociados</t>
+  </si>
+  <si>
+    <t>Abogado Laboral Rodrigo Muñoz Sandrock</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico del Trabajador</t>
+  </si>
+  <si>
+    <t>Parot &amp; Asociados</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico Defiende tu Familia</t>
+  </si>
+  <si>
+    <t>Abogada Johana Godoy Escobar</t>
+  </si>
+  <si>
+    <t>Geisse y Asociados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATORRE &amp; CIA ABOGADOS TRIBUTARIOS </t>
+  </si>
+  <si>
+    <t>Abogado Rodrigo Sepúlveda</t>
+  </si>
+  <si>
+    <t>Hagedorn y Belmar Abogados</t>
+  </si>
+  <si>
+    <t>Tapia Elorza Y Compañía Abogados</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico Valderrama, Abogados</t>
+  </si>
+  <si>
+    <t>ABOGADOS DIAZ Y ASOCIADOS</t>
+  </si>
+  <si>
+    <t>Abogado Orietta Rodríguez - Identidad Legal</t>
+  </si>
+  <si>
+    <t>Demanda Colectiva AFP</t>
+  </si>
+  <si>
+    <t>Abogado Tributario LET</t>
+  </si>
+  <si>
+    <t>Abogados Pucon.cl</t>
+  </si>
+  <si>
+    <t>Abogados Barraza Rojas &amp; Cía. Ltda.</t>
+  </si>
+  <si>
+    <t>Abogado Nicolas Arismendi</t>
+  </si>
+  <si>
+    <t>Peralta y Cía Abogados</t>
+  </si>
+  <si>
+    <t>Hay Solución</t>
+  </si>
+  <si>
+    <t>Masabogados.cl</t>
+  </si>
+  <si>
+    <t>Abogados Valdivia</t>
+  </si>
+  <si>
+    <t>Optima Defensa</t>
+  </si>
+  <si>
+    <t>Abogado Sergio Díaz</t>
+  </si>
+  <si>
+    <t>Álvarez Abogados</t>
+  </si>
+  <si>
+    <t>Becker Abogados</t>
+  </si>
+  <si>
+    <t>Estudio Juridico V &amp; V</t>
+  </si>
+  <si>
+    <t>Julio Rojas Benavente Abogados</t>
+  </si>
+  <si>
+    <t>Abogados de Familia Rancagua</t>
+  </si>
+  <si>
+    <t>Herrera Sánchez Marcelo</t>
+  </si>
+  <si>
+    <t>Guerrero y Cía. Abogados</t>
+  </si>
+  <si>
+    <t>Ansaldi Dominguez, Carmen</t>
+  </si>
+  <si>
+    <t>Estudio Dellafiori</t>
+  </si>
+  <si>
+    <t>Bravo y Cía Rodrigo</t>
+  </si>
+  <si>
+    <t>Tuane y Cía. Abogados</t>
+  </si>
+  <si>
+    <t>Sota Abogada</t>
+  </si>
+  <si>
+    <t>LZM Abogados</t>
+  </si>
+  <si>
+    <t>Uribe Etxverria y Cía. Ltda.</t>
+  </si>
+  <si>
+    <t>Organismo Tecnico de Capacitacion y Abogado Patricio Cornejo</t>
+  </si>
+  <si>
+    <t>Antonio Arriagada Jaramillo Abogado</t>
+  </si>
+  <si>
+    <t>Abogados Asociados &amp; Cia</t>
+  </si>
+  <si>
+    <t>Abogados Guido Sepulveda Y Cia. Ltda.</t>
+  </si>
+  <si>
+    <t>Juan Pablo Iturriaga Cavieres, Abogado</t>
+  </si>
+  <si>
+    <t>Bunster Henríquez Katiushka</t>
+  </si>
+  <si>
+    <t>Ulloa, Monge, Schubert &amp; Cia. Abogados</t>
+  </si>
+  <si>
+    <t>Advis Mondaca, Ricardo</t>
+  </si>
+  <si>
+    <t>Estudio Juridico Quasar</t>
+  </si>
+  <si>
+    <t>Retamal Grimberg María Loreto</t>
+  </si>
+  <si>
+    <t>Rubio Ruiz de Gamboa, Carlos</t>
+  </si>
+  <si>
+    <t>Lewin y Cía. Abogados</t>
+  </si>
+  <si>
+    <t>Estudio Juridico Acevedo Asociados</t>
+  </si>
+  <si>
+    <t>Daguerressar Caldera Carlos Andrés</t>
+  </si>
+  <si>
+    <t>Cáceres Squella Gabriel Eduardo O.</t>
+  </si>
+  <si>
+    <t>Abogados Asesores y Consultores</t>
+  </si>
+  <si>
+    <t>Abuauad &amp; Cía.</t>
+  </si>
+  <si>
+    <t>Bravo Tesseo, Jorge</t>
+  </si>
+  <si>
+    <t>Bufete de Abogados Ohiggins</t>
+  </si>
+  <si>
+    <t>Area Judicial</t>
+  </si>
+  <si>
+    <t>Vicente Estudio Jurídico</t>
+  </si>
+  <si>
+    <t>Soza y Cia Abogados</t>
+  </si>
+  <si>
+    <t>Rabuco Cañas, Ricardo</t>
+  </si>
+  <si>
+    <t>Estudio Juridico Veronica Bustamante</t>
+  </si>
+  <si>
+    <t>Abogados Estudio Juridico Robinson Quelin</t>
+  </si>
+  <si>
+    <t>Daslav Omerovic y Asociados</t>
+  </si>
+  <si>
+    <t>Raposo Rojas, Alberto</t>
+  </si>
+  <si>
+    <t>Steuer Stehn Helmuth</t>
+  </si>
+  <si>
+    <t>L&amp;H Abogados Ltda</t>
+  </si>
+  <si>
+    <t>Rogel y Asociados, Aníbal</t>
+  </si>
+  <si>
+    <t>Orlando Poblete y Compania Limitada</t>
+  </si>
+  <si>
+    <t>Contreras Fuentes Carlos</t>
+  </si>
+  <si>
+    <t>Jerez Dávila, Juan José</t>
+  </si>
+  <si>
+    <t>Cortés Tapia Patricia</t>
+  </si>
+  <si>
+    <t>Sebastian Tello Mura</t>
+  </si>
+  <si>
+    <t>Consultora Legal</t>
+  </si>
+  <si>
+    <t>De Iruarrizaga, Arnaiz y Cía.</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico Naranjo y Asociados Ltda.</t>
+  </si>
+  <si>
+    <t>Abogada Elizabeth Kobus</t>
+  </si>
+  <si>
+    <t>Gálvez LLanos, Jorge Eduardo</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico Rubén Díaz y Asociados</t>
+  </si>
+  <si>
+    <t>Johansson &amp; Langlois</t>
+  </si>
+  <si>
+    <t>Abogado Daniel Guevara Cortés</t>
+  </si>
+  <si>
+    <t>Mcys Abogados</t>
+  </si>
+  <si>
+    <t>Rencoret Balbontín, Andrés</t>
+  </si>
+  <si>
+    <t>Estudio Juridico Defensa Go</t>
+  </si>
+  <si>
+    <t>Barra y Cía.</t>
+  </si>
+  <si>
+    <t>Vergara Labarca &amp; Cía.</t>
+  </si>
+  <si>
+    <t>TransUnion Soluciones de Informacion Chile S.A</t>
+  </si>
+  <si>
+    <t>Estudio Muñoz &amp; Pirtzl Ltda.</t>
+  </si>
+  <si>
+    <t>Iturra Astudillo, Fernando Fidel</t>
+  </si>
+  <si>
+    <t>Gestab</t>
+  </si>
+  <si>
+    <t>Juicios Laborales Mario Garay Martínez</t>
+  </si>
+  <si>
+    <t>Abogadas Laboralistas</t>
+  </si>
+  <si>
+    <t>Holzapfel Gross, Gastón</t>
+  </si>
+  <si>
+    <t>Jean Pierre Matus</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico Hernández &amp; Villegas</t>
+  </si>
+  <si>
+    <t>Asesoría Legal Comercial Y &amp; N Ltda.</t>
+  </si>
+  <si>
+    <t>Asesorias Legales</t>
+  </si>
+  <si>
+    <t>Bordachar Urrutia Rodrigo</t>
+  </si>
+  <si>
+    <t>DYP Abogados</t>
+  </si>
+  <si>
+    <t>Jiménez Trejo Patricio</t>
+  </si>
+  <si>
+    <t>Abogados del Maule</t>
+  </si>
+  <si>
+    <t>Pomar Carrasco Y Compania Limitada</t>
+  </si>
+  <si>
+    <t>Peréz Correa y Sanguino Ltda.</t>
+  </si>
+  <si>
+    <t>Albornoz Pollmann Abogados</t>
+  </si>
+  <si>
+    <t>Yuseff y Compañía</t>
+  </si>
+  <si>
+    <t>Abogados HUGO CIRO CABRERA TORRES</t>
+  </si>
+  <si>
+    <t>Aseo Industrial Alondra</t>
+  </si>
+  <si>
+    <t>Miss Legal</t>
+  </si>
+  <si>
+    <t>Abogados Debia y Figueroa</t>
+  </si>
+  <si>
+    <t>Pérez-Cotapos Contreras Juan José</t>
+  </si>
+  <si>
+    <t>Abogado Patricio Martinez Fuentes</t>
+  </si>
+  <si>
     <t>Prat 350 Ofi. 706</t>
   </si>
   <si>
@@ -100,6 +916,402 @@
     <t>Arlequi 263 piso 6</t>
   </si>
   <si>
+    <t>Eizaguirre 450 piso 2 .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paseo Baquedano 1129 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Antonio 19 oficina 1003 </t>
+  </si>
+  <si>
+    <t>General Ordoñez 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Providencia 1208 Piso 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Bernardo Ohiggins 770 Piso 1 </t>
+  </si>
+  <si>
+    <t>Prat 461, oficina 1606</t>
+  </si>
+  <si>
+    <t>Vicuña Mackena 380 of 10, segundo piso</t>
+  </si>
+  <si>
+    <t>Bilbao  (Edificio Bicentenario ) 1129</t>
+  </si>
+  <si>
+    <t>5 oriente 1591</t>
+  </si>
+  <si>
+    <t>Avenida Presidente Kennedy 7440 oficina 402</t>
+  </si>
+  <si>
+    <t>oficina Petronila, 165 casa 70</t>
+  </si>
+  <si>
+    <t>AV, LAS CONDES 10465 0FICINA 105</t>
+  </si>
+  <si>
+    <t>Los Militares 5620, oficina 905</t>
+  </si>
+  <si>
+    <t>Bombero Ossa 1010, Of. 320</t>
+  </si>
+  <si>
+    <t>Don Carlos 2939, Oficina 801</t>
+  </si>
+  <si>
+    <t>Los Carrera # 335 Oficina 201</t>
+  </si>
+  <si>
+    <t>calle Tucapel 452, Of. M Edificio Tribunales</t>
+  </si>
+  <si>
+    <t>Valparaíso 585, Of. 703</t>
+  </si>
+  <si>
+    <t>Camilo Henríquez 404, Of. 1B</t>
+  </si>
+  <si>
+    <t>Avenida Cuatro Sur 2194, Of. 2 Barrancas</t>
+  </si>
+  <si>
+    <t>Paseo Huérfanos 1117, Of. 628</t>
+  </si>
+  <si>
+    <t>Calle Lincoyán 445, Piso, 3</t>
+  </si>
+  <si>
+    <t>Cerro el Plomo 5931, Of. 510 Metro Manquehue</t>
+  </si>
+  <si>
+    <t>Apoquindo 6410, Of. 605</t>
+  </si>
+  <si>
+    <t>Prat 461, Of. 1606</t>
+  </si>
+  <si>
+    <t>Aníbal Pinto 1729</t>
+  </si>
+  <si>
+    <t>Bueras 141</t>
+  </si>
+  <si>
+    <t>Astorga 260, Of. 5</t>
+  </si>
+  <si>
+    <t>Urmeneta 305</t>
+  </si>
+  <si>
+    <t>Calle Colo Colo 379, Of. 604</t>
+  </si>
+  <si>
+    <t>Balmaceda 396</t>
+  </si>
+  <si>
+    <t>Avenida Valparaíso 2650, Oficina 3</t>
+  </si>
+  <si>
+    <t>Huérfanos 1117, Of. 332</t>
+  </si>
+  <si>
+    <t>13 Norte 853, Of. 803</t>
+  </si>
+  <si>
+    <t>Bombero Ossa 1010, Of. 308</t>
+  </si>
+  <si>
+    <t>Camino Internacional 1870 Oficina 16</t>
+  </si>
+  <si>
+    <t>Jorge Washington 2461</t>
+  </si>
+  <si>
+    <t>Lautaro 325 oficina 604</t>
+  </si>
+  <si>
+    <t>Calle Cuevas 790</t>
+  </si>
+  <si>
+    <t>Caupolicán 567, Loc. 408</t>
+  </si>
+  <si>
+    <t>Arturo Prat 780, oficina 8</t>
+  </si>
+  <si>
+    <t>Carlos Anwandter 842</t>
+  </si>
+  <si>
+    <t>Los carrera 572</t>
+  </si>
+  <si>
+    <t>Prat 350, Loc. 706</t>
+  </si>
+  <si>
+    <t>Uno Sur 690, Loc. 512</t>
+  </si>
+  <si>
+    <t>Apoquindo 4700, 11</t>
+  </si>
+  <si>
+    <t>Ohiggins 1186 OF 402</t>
+  </si>
+  <si>
+    <t>Pedro de Valdivia 553</t>
+  </si>
+  <si>
+    <t>Estado 173, Loc. 35</t>
+  </si>
+  <si>
+    <t>Constitucion 948, 3, Loc. E</t>
+  </si>
+  <si>
+    <t>Isidora Goyenechea 3365, 7</t>
+  </si>
+  <si>
+    <t>Rosa Rodríguez Riquelme 1375, Loc. 315</t>
+  </si>
+  <si>
+    <t>Doctor Sótero del Río 508, 7, Loc. 703</t>
+  </si>
+  <si>
+    <t>Pedro Pablo Muñoz 350</t>
+  </si>
+  <si>
+    <t>El Bosque Norte 500, 1101</t>
+  </si>
+  <si>
+    <t>Antonio Varas 979</t>
+  </si>
+  <si>
+    <t>Antupiren 9876</t>
+  </si>
+  <si>
+    <t>Morandé 322, Loc. 701</t>
+  </si>
+  <si>
+    <t>Manuel Bulnes 351</t>
+  </si>
+  <si>
+    <t>San Martín 553, Loc. 706</t>
+  </si>
+  <si>
+    <t>Camilo Henríquez 404, Loc. 2-B</t>
+  </si>
+  <si>
+    <t>Arturo Prat 620</t>
+  </si>
+  <si>
+    <t>Brasil 774, Loc. 1</t>
+  </si>
+  <si>
+    <t>Compañía de Jesús 1390, Loc. 1905</t>
+  </si>
+  <si>
+    <t>Antonio Varas 979, Loc. 407</t>
+  </si>
+  <si>
+    <t>Amunátegui 86, Loc. 805</t>
+  </si>
+  <si>
+    <t>21 de Mayo 1452</t>
+  </si>
+  <si>
+    <t>Los Carrera 380, Loc. 312</t>
+  </si>
+  <si>
+    <t>Bernardo O'Higgins 580, Loc. 174</t>
+  </si>
+  <si>
+    <t>Paseo Huérfanos 1022, 10</t>
+  </si>
+  <si>
+    <t>San Sebastián 2807, 514</t>
+  </si>
+  <si>
+    <t>Manuel Antonio Matta 510, 2, Loc. 1</t>
+  </si>
+  <si>
+    <t>Huérfanos 770, Loc. 1503</t>
+  </si>
+  <si>
+    <t>Maipú 499, Loc. 303-304</t>
+  </si>
+  <si>
+    <t>Arturo Prat 814, 5, Loc. 503</t>
+  </si>
+  <si>
+    <t>La Fetra 131</t>
+  </si>
+  <si>
+    <t>Paseo Huérfanos 779, Loc. 802</t>
+  </si>
+  <si>
+    <t>Paganini 241</t>
+  </si>
+  <si>
+    <t>Almirante Señoret 70, Loc. 82</t>
+  </si>
+  <si>
+    <t>Santa Rosa 560</t>
+  </si>
+  <si>
+    <t>Arlegui 1329</t>
+  </si>
+  <si>
+    <t>José Menéndez 788, 2</t>
+  </si>
+  <si>
+    <t>Presidente Julio Roca 825, Loc. 6</t>
+  </si>
+  <si>
+    <t>Monjitas 527, Loc. 1012</t>
+  </si>
+  <si>
+    <t>Compañía de Jesús 1390, Loc. 312- A</t>
+  </si>
+  <si>
+    <t>Arauco 389, Loc. 26</t>
+  </si>
+  <si>
+    <t>General Holley 2363</t>
+  </si>
+  <si>
+    <t>Paseo Ahumada 236, Loc. 508-509</t>
+  </si>
+  <si>
+    <t>Compañia de Jesus 1068, Loc. 804</t>
+  </si>
+  <si>
+    <t>Paseo Huérfanos 1117, Loc. 421</t>
+  </si>
+  <si>
+    <t>Aníbal Pinto 531, Loc. 58</t>
+  </si>
+  <si>
+    <t>Agustinas 1442, B, Loc. 1007</t>
+  </si>
+  <si>
+    <t>Arturo Prat 581</t>
+  </si>
+  <si>
+    <t>Paseo Ahumada 131, Of 502</t>
+  </si>
+  <si>
+    <t>Isidora Goyenechea 3642, 3</t>
+  </si>
+  <si>
+    <t>Arturo Prat 461, Loc. 804</t>
+  </si>
+  <si>
+    <t>Antonio Varas 216, Loc. 509</t>
+  </si>
+  <si>
+    <t>Caupolicán 567, 9, Loc. 907</t>
+  </si>
+  <si>
+    <t>Serrano 385</t>
+  </si>
+  <si>
+    <t>San Pío X 2460</t>
+  </si>
+  <si>
+    <t>General José Manuel Borgoño 934, Loc. 304</t>
+  </si>
+  <si>
+    <t>Castellon 477</t>
+  </si>
+  <si>
+    <t>Huérfanos 1022, Loc. 701</t>
+  </si>
+  <si>
+    <t>13 Norte 853, Loc. 803</t>
+  </si>
+  <si>
+    <t>Paseo Bulnes 259, Loc. 804</t>
+  </si>
+  <si>
+    <t>Andrés Bello 2777, Loc. 2002</t>
+  </si>
+  <si>
+    <t>Monjitas 392, 5</t>
+  </si>
+  <si>
+    <t>Libertad 919, Loc. 81</t>
+  </si>
+  <si>
+    <t>Catedral 1233, Loc. 106-107</t>
+  </si>
+  <si>
+    <t>MONTE ALEGRE 1078</t>
+  </si>
+  <si>
+    <t>Catedral 1233, Loc. 501</t>
+  </si>
+  <si>
+    <t>Huerfanos 1022, Loc. 708</t>
+  </si>
+  <si>
+    <t>San Antonio 427, Loc. 1010</t>
+  </si>
+  <si>
+    <t>Alcántara 200, 6</t>
+  </si>
+  <si>
+    <t>Diego Portales 431, Loc. 6</t>
+  </si>
+  <si>
+    <t>Pedro Pablo Muñoz 430, Loc. 15</t>
+  </si>
+  <si>
+    <t>Catedral 1009, Oficina 8</t>
+  </si>
+  <si>
+    <t>Moneda 920, Loc. 908</t>
+  </si>
+  <si>
+    <t>Santa Lucía 280, Loc. 12</t>
+  </si>
+  <si>
+    <t>Ismael Valdés Vergara 670, 10</t>
+  </si>
+  <si>
+    <t>2 Sur 1650</t>
+  </si>
+  <si>
+    <t>Nueva York 17</t>
+  </si>
+  <si>
+    <t>Antonio Varas 216, Loc. 1103</t>
+  </si>
+  <si>
+    <t>Miraflores 178, 13</t>
+  </si>
+  <si>
+    <t>1 Poniente 123, Loc. 508</t>
+  </si>
+  <si>
+    <t>Libertador B.O'Higgins  377, 1</t>
+  </si>
+  <si>
+    <t>Doublé Almeyda 4330</t>
+  </si>
+  <si>
+    <t>Cochrene 639, Loc. 121</t>
+  </si>
+  <si>
+    <t>Antofagasta 2193, Of.204</t>
+  </si>
+  <si>
+    <t>Pudeto 86</t>
+  </si>
+  <si>
+    <t>Sotomayor 625</t>
+  </si>
+  <si>
     <t>(9) 85024319</t>
   </si>
   <si>
@@ -115,6 +1327,387 @@
     <t>(9) 88641750</t>
   </si>
   <si>
+    <t>(9) 56783322</t>
+  </si>
+  <si>
+    <t>(2) 64655483</t>
+  </si>
+  <si>
+    <t>(9) 89283799</t>
+  </si>
+  <si>
+    <t>(9) 982954600</t>
+  </si>
+  <si>
+    <t>(9) 94597999</t>
+  </si>
+  <si>
+    <t>(9)58458714</t>
+  </si>
+  <si>
+    <t>(9) 48010133</t>
+  </si>
+  <si>
+    <t>(9) 94712414</t>
+  </si>
+  <si>
+    <t>(2) 975670512</t>
+  </si>
+  <si>
+    <t>(2) 27619934</t>
+  </si>
+  <si>
+    <t>(9) 84611870</t>
+  </si>
+  <si>
+    <t>(2)26952980</t>
+  </si>
+  <si>
+    <t>(2) 28699140</t>
+  </si>
+  <si>
+    <t>(9) 49347933</t>
+  </si>
+  <si>
+    <t>(9)72483769</t>
+  </si>
+  <si>
+    <t>(32)2882409</t>
+  </si>
+  <si>
+    <t>(9)78372196</t>
+  </si>
+  <si>
+    <t>(9)96444093</t>
+  </si>
+  <si>
+    <t>(9)92540050</t>
+  </si>
+  <si>
+    <t>(41)2469950</t>
+  </si>
+  <si>
+    <t>(2)25940615</t>
+  </si>
+  <si>
+    <t>(9)96128537</t>
+  </si>
+  <si>
+    <t>(9)82954600</t>
+  </si>
+  <si>
+    <t>(55)2222102</t>
+  </si>
+  <si>
+    <t>(9)76277204</t>
+  </si>
+  <si>
+    <t>(9) 32325963</t>
+  </si>
+  <si>
+    <t>(9)74316540</t>
+  </si>
+  <si>
+    <t>(9) 93341226</t>
+  </si>
+  <si>
+    <t>(41)2851724</t>
+  </si>
+  <si>
+    <t>(45)2324313</t>
+  </si>
+  <si>
+    <t>(9) 49520870</t>
+  </si>
+  <si>
+    <t>(2)26973761</t>
+  </si>
+  <si>
+    <t>(32)3473511</t>
+  </si>
+  <si>
+    <t>(9) 40620237</t>
+  </si>
+  <si>
+    <t>(9) 66114883</t>
+  </si>
+  <si>
+    <t>(9) 62328918</t>
+  </si>
+  <si>
+    <t>(72) 2224414</t>
+  </si>
+  <si>
+    <t>(9)56120088</t>
+  </si>
+  <si>
+    <t>(2) 981897995</t>
+  </si>
+  <si>
+    <t>(63)2559011</t>
+  </si>
+  <si>
+    <t>(9) 33129604</t>
+  </si>
+  <si>
+    <t>(9)85024319</t>
+  </si>
+  <si>
+    <t>(9)71383211</t>
+  </si>
+  <si>
+    <t>(2)28820057</t>
+  </si>
+  <si>
+    <t>(9) 44987796</t>
+  </si>
+  <si>
+    <t>(9)98797783</t>
+  </si>
+  <si>
+    <t>(9)42431251</t>
+  </si>
+  <si>
+    <t>(42)2321209</t>
+  </si>
+  <si>
+    <t>(2)27997100</t>
+  </si>
+  <si>
+    <t>(2)26981142</t>
+  </si>
+  <si>
+    <t>(2)26621283</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(2)23783030</t>
+  </si>
+  <si>
+    <t>(45)2409999</t>
+  </si>
+  <si>
+    <t>(9)96936034</t>
+  </si>
+  <si>
+    <t>(2)26952210</t>
+  </si>
+  <si>
+    <t>(45)2236094</t>
+  </si>
+  <si>
+    <t>(41)3162581</t>
+  </si>
+  <si>
+    <t>(45)2910500</t>
+  </si>
+  <si>
+    <t>(9)98012132</t>
+  </si>
+  <si>
+    <t>(2)26578876</t>
+  </si>
+  <si>
+    <t>(45)2216885</t>
+  </si>
+  <si>
+    <t>(2)26952799</t>
+  </si>
+  <si>
+    <t>(9)93184441</t>
+  </si>
+  <si>
+    <t>(51)2550526</t>
+  </si>
+  <si>
+    <t>(64)2233194</t>
+  </si>
+  <si>
+    <t>(2)26981730</t>
+  </si>
+  <si>
+    <t>(2)22316054</t>
+  </si>
+  <si>
+    <t>(51)2217093</t>
+  </si>
+  <si>
+    <t>(2)26338004</t>
+  </si>
+  <si>
+    <t>(55)2781022</t>
+  </si>
+  <si>
+    <t>(32)2237198</t>
+  </si>
+  <si>
+    <t>(2)26979949</t>
+  </si>
+  <si>
+    <t>(2)22470162</t>
+  </si>
+  <si>
+    <t>(2)25072761</t>
+  </si>
+  <si>
+    <t>(32)2214271</t>
+  </si>
+  <si>
+    <t>(65)2236380</t>
+  </si>
+  <si>
+    <t>(32)2881492</t>
+  </si>
+  <si>
+    <t>(61)2613508</t>
+  </si>
+  <si>
+    <t>(61)2220015</t>
+  </si>
+  <si>
+    <t>(2)26329025</t>
+  </si>
+  <si>
+    <t>(2)26967382</t>
+  </si>
+  <si>
+    <t>(63)2212138</t>
+  </si>
+  <si>
+    <t>(2)28649967</t>
+  </si>
+  <si>
+    <t>(2)26727358</t>
+  </si>
+  <si>
+    <t>(2)26966024</t>
+  </si>
+  <si>
+    <t>(2)26950981</t>
+  </si>
+  <si>
+    <t>(41)2254624</t>
+  </si>
+  <si>
+    <t>(2)26874250</t>
+  </si>
+  <si>
+    <t>(51)2220983</t>
+  </si>
+  <si>
+    <t>(9)99111020</t>
+  </si>
+  <si>
+    <t>(2)26559988</t>
+  </si>
+  <si>
+    <t>(55)2776751</t>
+  </si>
+  <si>
+    <t>(65)2271317</t>
+  </si>
+  <si>
+    <t>(41)2229256</t>
+  </si>
+  <si>
+    <t>(33)2716948</t>
+  </si>
+  <si>
+    <t>(2)22312424</t>
+  </si>
+  <si>
+    <t>(55)2493684</t>
+  </si>
+  <si>
+    <t>(41)2748585</t>
+  </si>
+  <si>
+    <t>(2)26715545</t>
+  </si>
+  <si>
+    <t>(2)26721184</t>
+  </si>
+  <si>
+    <t>(2)22033900</t>
+  </si>
+  <si>
+    <t>(2)23907000</t>
+  </si>
+  <si>
+    <t>(32)2695843</t>
+  </si>
+  <si>
+    <t>(2)26990699</t>
+  </si>
+  <si>
+    <t>(2)28394259</t>
+  </si>
+  <si>
+    <t>(2)26973600</t>
+  </si>
+  <si>
+    <t>(2)26889765</t>
+  </si>
+  <si>
+    <t>(2)26393741</t>
+  </si>
+  <si>
+    <t>(2)23702993</t>
+  </si>
+  <si>
+    <t>(9)89511752</t>
+  </si>
+  <si>
+    <t>(51)2257476</t>
+  </si>
+  <si>
+    <t>(2)26572050</t>
+  </si>
+  <si>
+    <t>(2)26882424</t>
+  </si>
+  <si>
+    <t>(2)26382055</t>
+  </si>
+  <si>
+    <t>(2)26387066</t>
+  </si>
+  <si>
+    <t>(9)91835639</t>
+  </si>
+  <si>
+    <t>(2)26964615</t>
+  </si>
+  <si>
+    <t>(65)2314534</t>
+  </si>
+  <si>
+    <t>(2)24259404</t>
+  </si>
+  <si>
+    <t>(32)2399785</t>
+  </si>
+  <si>
+    <t>(33)2312325</t>
+  </si>
+  <si>
+    <t>(2)22690025</t>
+  </si>
+  <si>
+    <t>(32)2213777</t>
+  </si>
+  <si>
+    <t>(55)3449650</t>
+  </si>
+  <si>
+    <t>(33)2268900</t>
+  </si>
+  <si>
+    <t>(57)2416017</t>
+  </si>
+  <si>
     <t>redsurabogados.cl/</t>
   </si>
   <si>
@@ -130,6 +1723,225 @@
     <t>www.emprendetuempresa.cl</t>
   </si>
   <si>
+    <t>www.bcgauditores.cl</t>
+  </si>
+  <si>
+    <t>www.contadoresiquique.cl</t>
+  </si>
+  <si>
+    <t>www.lexjuicios.cl</t>
+  </si>
+  <si>
+    <t>abogadosmaipu.cl</t>
+  </si>
+  <si>
+    <t>www.contadoresconcepcion.cl</t>
+  </si>
+  <si>
+    <t>mediacionbicentenario.blogspot.com/</t>
+  </si>
+  <si>
+    <t>www.rodriguezabogado.cl</t>
+  </si>
+  <si>
+    <t>pleitolaboral.cl/</t>
+  </si>
+  <si>
+    <t>CONDELL 2919, OFICINA 206</t>
+  </si>
+  <si>
+    <t>www.camposycia.com</t>
+  </si>
+  <si>
+    <t>www.urrutialetelier.cl</t>
+  </si>
+  <si>
+    <t>abogados-ryr.cl</t>
+  </si>
+  <si>
+    <t>bustosgomez.cl/</t>
+  </si>
+  <si>
+    <t>www.segoviayasociados.cl</t>
+  </si>
+  <si>
+    <t>www.clarkabogados.cl</t>
+  </si>
+  <si>
+    <t>www.carlosarceabogado.com</t>
+  </si>
+  <si>
+    <t>www.abogadosaccionlegal.cl</t>
+  </si>
+  <si>
+    <t>www.abogadosanantonio.cl</t>
+  </si>
+  <si>
+    <t>www.ejdeltrabajador.cl</t>
+  </si>
+  <si>
+    <t>www.parotyasociados.com</t>
+  </si>
+  <si>
+    <t>www.defiendetufamilia.cl</t>
+  </si>
+  <si>
+    <t>www.godoyabogados.cl</t>
+  </si>
+  <si>
+    <t>www.latorreycia.cl/</t>
+  </si>
+  <si>
+    <t>www.hagedornybelmar.cl/abogados/</t>
+  </si>
+  <si>
+    <t>www.tapiaelorza.cl</t>
+  </si>
+  <si>
+    <t>www.valpach.cl</t>
+  </si>
+  <si>
+    <t>www.identidadlegal.com</t>
+  </si>
+  <si>
+    <t>www.demandacolectivaafp.cl</t>
+  </si>
+  <si>
+    <t>www.abogadospucon.cl/</t>
+  </si>
+  <si>
+    <t>www.abogadosbarrazarojas.cl/</t>
+  </si>
+  <si>
+    <t>arismendiyasociados.cl/</t>
+  </si>
+  <si>
+    <t>www.peraltayciaabogados.cl</t>
+  </si>
+  <si>
+    <t>www.haysolucion.cl</t>
+  </si>
+  <si>
+    <t>www.masabogados.cl</t>
+  </si>
+  <si>
+    <t>www.abogadosvaldivia.com</t>
+  </si>
+  <si>
+    <t>www.optimadefensa.cl</t>
+  </si>
+  <si>
+    <t>www.redsurabogados.cl</t>
+  </si>
+  <si>
+    <t>www.abogadosalvarez.cl</t>
+  </si>
+  <si>
+    <t>www.beckerabogados.cl</t>
+  </si>
+  <si>
+    <t>www.estudiojuridicovyv.cl</t>
+  </si>
+  <si>
+    <t>www.guerreroycia.cl</t>
+  </si>
+  <si>
+    <t>www.dellafiori.cl</t>
+  </si>
+  <si>
+    <t>www.bravoabogados.cl</t>
+  </si>
+  <si>
+    <t>www.tuane.cl</t>
+  </si>
+  <si>
+    <t>www.uribe-etxeverria.cl</t>
+  </si>
+  <si>
+    <t>www.umsabogados.cl</t>
+  </si>
+  <si>
+    <t>www.estudiolewin.cl</t>
+  </si>
+  <si>
+    <t>www.abuauad.cl</t>
+  </si>
+  <si>
+    <t>www.abogadosnacionales.cl</t>
+  </si>
+  <si>
+    <t>www.areajudicial.cl</t>
+  </si>
+  <si>
+    <t>www.vicenteycia.cl</t>
+  </si>
+  <si>
+    <t>www.cl.linkedin.com/pub/daslav-omerovic/35/9/802</t>
+  </si>
+  <si>
+    <t>www.abogadoraposo.webnode.cl</t>
+  </si>
+  <si>
+    <t>www.lhabogados.cl</t>
+  </si>
+  <si>
+    <t>www.ortfesa.cl</t>
+  </si>
+  <si>
+    <t>www.cmmabogados.cl</t>
+  </si>
+  <si>
+    <t>www.divorcioslaserena.cl</t>
+  </si>
+  <si>
+    <t>www.iruabogados.cl</t>
+  </si>
+  <si>
+    <t>www.jl.cl</t>
+  </si>
+  <si>
+    <t>www.guevara.cl</t>
+  </si>
+  <si>
+    <t>www.defensago.cl</t>
+  </si>
+  <si>
+    <t>www.transunionchile.cl</t>
+  </si>
+  <si>
+    <t>www.gestab.cl</t>
+  </si>
+  <si>
+    <t>www.juris.cl</t>
+  </si>
+  <si>
+    <t>www.abogadaslaboralistas.cl</t>
+  </si>
+  <si>
+    <t>www.jpmatus.cl</t>
+  </si>
+  <si>
+    <t>www.yomedivorcio.cl</t>
+  </si>
+  <si>
+    <t>www.asesorialegalcomercial.cl</t>
+  </si>
+  <si>
+    <t>www.dypabogados.cl</t>
+  </si>
+  <si>
+    <t>www.coddouycia.cl</t>
+  </si>
+  <si>
+    <t>www.asesorialaboral.cl</t>
+  </si>
+  <si>
+    <t>www.yuseffycompañia.cl</t>
+  </si>
+  <si>
+    <t>www.aseoalondra.cl</t>
+  </si>
+  <si>
     <t>Temuco, Región de la Araucanía</t>
   </si>
   <si>
@@ -143,6 +1955,126 @@
   </si>
   <si>
     <t>Viña del Mar, Región Valparaíso</t>
+  </si>
+  <si>
+    <t>San Bernardo, Región Metropolitana</t>
+  </si>
+  <si>
+    <t>Iquique, Región Tarapacá</t>
+  </si>
+  <si>
+    <t>Santiago, Región Metropolitana</t>
+  </si>
+  <si>
+    <t>Concepción, Región del Biobío</t>
+  </si>
+  <si>
+    <t>Antofagasta, Región Antofagasta</t>
+  </si>
+  <si>
+    <t>Nueva Imperial, Región de la Araucanía</t>
+  </si>
+  <si>
+    <t>Osorno, Región X</t>
+  </si>
+  <si>
+    <t>Talca, Región del Maule</t>
+  </si>
+  <si>
+    <t>Las Condes, Región Metropolitana</t>
+  </si>
+  <si>
+    <t>La Serena, Región Coquimbo</t>
+  </si>
+  <si>
+    <t>Concepción, Región VIII</t>
+  </si>
+  <si>
+    <t>Viña del Mar, Región V</t>
+  </si>
+  <si>
+    <t>Coquimbo, Región IV</t>
+  </si>
+  <si>
+    <t>San Antonio, Región V</t>
+  </si>
+  <si>
+    <t>Antofagasta, Región II</t>
+  </si>
+  <si>
+    <t>Mejillones, Región II</t>
+  </si>
+  <si>
+    <t>Rancagua, Región del Libertador Gral. Bernardo O’Higgins</t>
+  </si>
+  <si>
+    <t>Rancagua, Región VI</t>
+  </si>
+  <si>
+    <t>Puerto Montt, Región de Los Lagos</t>
+  </si>
+  <si>
+    <t>Temuco, Región IX</t>
+  </si>
+  <si>
+    <t>Villa Alemana, Región Valparaíso</t>
+  </si>
+  <si>
+    <t>Pucón, Región de la Araucanía</t>
+  </si>
+  <si>
+    <t>Los Angeles, Región del Biobío</t>
+  </si>
+  <si>
+    <t>Valdivia, Región XIV</t>
+  </si>
+  <si>
+    <t>Talca, Región VII</t>
+  </si>
+  <si>
+    <t>Concón, Región V</t>
+  </si>
+  <si>
+    <t>Chillán, Región VIII</t>
+  </si>
+  <si>
+    <t>La Serena, Región IV</t>
+  </si>
+  <si>
+    <t>Peñalolén, Región Metropolitana</t>
+  </si>
+  <si>
+    <t>San Carlos, Región VIII</t>
+  </si>
+  <si>
+    <t>Valparaíso, Región V</t>
+  </si>
+  <si>
+    <t>San Joaquín, Región Metropolitana</t>
+  </si>
+  <si>
+    <t>Puerto Varas, Región X</t>
+  </si>
+  <si>
+    <t>Punta Arenas, Región XII</t>
+  </si>
+  <si>
+    <t>Puerto Montt, Región X</t>
+  </si>
+  <si>
+    <t>La Ligua, Región V</t>
+  </si>
+  <si>
+    <t>Quillota, Región V</t>
+  </si>
+  <si>
+    <t>Ñuñoa, Región Metropolitana</t>
+  </si>
+  <si>
+    <t>Calama, Región II</t>
+  </si>
+  <si>
+    <t>Iquique, Región I</t>
   </si>
   <si>
     <t xml:space="preserve">ABOGADO
@@ -160,6 +2092,193 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Nuestra misión es proporcionarle a nuestros clientes servicios profesionales de CONTADORES AUDITORES Y CONSULTORES TRIBUTARIOS de calidad para ayudar al desarrollo de su empresa.
+En BCG CONTADORES AUDITORES Y ABOGADOS nuestra asesoría servirá para tomar nuevas decisiones y mejorar la gestión de su pequeña o mediana empresa.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Nuestra misión es proporcionarle a nuestros clientes servicios profesionales de CONTADORES AUDITORES Y CONSULTORES TRIBUTARIOS de calidad para ayudar al desarrollo de su empresa.
+En BCM CONTADORES AUDITORES Y ABOGADOS nuestra asesoría servirá para tomar nuevas decisiones y mejorar la gestión de su pequeña o mediana empresa.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuestra misión es proporcionarle a nuestros clientes servicios profesionales de CONTADORES AUDITORES Y CONSULTORES TRIBUTARIOS de calidad para ayudar al desarrollo de su empresa.
+En BCK CONTADORES AUDITORES Y ABOGADOS nuestra asesoría servirá para tomar nuevas decisiones y mejorar la gestión de su pequeña o mediana empresa.
+</t>
+  </si>
+  <si>
+    <t>RECEPTORA ESPERGUEL, abogada, especialista en prestación de servicios en tramitaciones judiciales, notificaciones, embargos, alzamientos y juicio ejecutivo.
+¡Contáctenos!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somos Luis Urrutia Abogados , una empresa dedicada a Abogados , Abogados Penalistas, principalmente. Entregamos servicios en . En Luis Urrutia Abogados  tenemos como objetivo principal la calidad de nuestros productos y servicios para satisfacer de la mejor forma posible la necesidad de nuestros clientes de manera óptima y oportuna. Nuestros servicios y/o productos de Abogados , Abogados Penalistas cumplen estándares de alta calidad que garantizan la satisfacción de nuestros clientes.							
+</t>
+  </si>
+  <si>
+    <t>Centro de Mediación Bicentenario
+Mediación Osorno, Mediación Bicentenario, Mediación Familiar, Mediación Familiar Osorno, Mediadora Paola Aedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somos un estudio jurídico que ofrece servicios especializados, con experiencia comprobable en todas las áreas del derecho, prestamos una asistencia legal cercana, integral y de plena satisfacción para todas aquellas personas y empresas que nos contratan. Nuestros servicios son eficientes y de óptima calidad, desarrollando a la vez con nuestros clientes relaciones de confianza que entregan seguridad y confianza. Estamos orgullosos de haber patrocinado casos de interés nacional y de alta complejidad. Nuestra misión es ser la real solución y apoyo para cada uno de nuestros clientes y patrocinados. Nuestra habilidad a encontrar soluciones creativas a complejas situaciones en el ámbito legal ha sido el sello de identidad de nuestro despacho desde su creación
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuestra misión es proporcionarle a nuestros clientes servicios profesionales de CONTADORES AUDITORES Y ABOGADOS de calidad para ayudar al desarrollo de su empresa.
+En BCK  ABOGADOS Y CONTADORES AUDITORES nuestra asesoría servirá para tomar nuevas decisiones y mejorar la gestión de su pequeña o mediana empresa.
+</t>
+  </si>
+  <si>
+    <t>Somos ABOGADOS R &amp; R, estamos dedicados a Asesoría y Defensa Tributaria. En ABOGADOS R &amp; R tenemos como objetivo principal la calidad de nuestros servicios para satisfacer de la mejor forma posible la necesidad de nuestros clientes de manera óptima y oportunaA)	SERVICIOS DE ASESORÍA JURÍDICA Y TRIBUTARIA A LAS PYMES MICROEMPRESASB)	DEFENSA TRIBUTARIAC)	DEFENSA ANTE COBRO DE DEUDA DE IMPUESTOD)	PRESCRIPCIÓN DEL COBRO DE IMPUESTOS</t>
+  </si>
+  <si>
+    <t>BG Bustos Gómez Abogados es una firma de excelencia, que tiene por finalidad prestar asesoría en materia Penal con los más altos estándares de calidad, dedicación y compromiso, otorgando un servicio personalizado y siendo más eficiente en términos de costos.
+Nos dedicamos exclusivamente al área Penal, a fin de que nuestra especialización y cercanía con nuestros clientes, en todo momento, sea nuestro valor agregado.
+Nuestro estudio ha sido reconocido en Litigación Penal por el prestigioso ranking internacional Leaders League.</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico Segovia y Asociados, fundado el 15 de septiembre de 2010, cuenta con abogado y profesionales interdisciplinarios para su gestión legal:
+•	Profesionales del área.
+•	Asistencia social.
+•	Psicología.
+•	Contabilidad.
+•	Corredor de propiedades.
+Además, audiencias en la Inspección del Trabajo, sumarios administrativos y otras instancias administrativas, asimismo, tramitación de marca en INAPI.
+El equipo de trabajo es liderado por Ana Karina Segovia Iraira, abogada egresada de la Pontificia Universidad Católica de Valparaíso, quien cuenta con un postítulo en Negociación y Mediación de la misma universidad, así como con un diploma en Derecho de Familia, además de experiencia laboral en Derecho Público Municipal. También se encuentra inscrita como abogado en la Embajada de los Estados Unidos.
+Dentro de nuestros servicios contamos con Abogados de familia, civil y laboral.
+Abogados Laboral: Despidos injustificados, autodespidos, acoso laboral, despidos a honorarios, despidos laborales, defensa a funcionarios públicos.
+Abogados Civil: Juicios de arriendos, asesoría en bienes raíces, contratos de arriendos, cobranza judicial, indemnizaciones.
+Abogados de Familia: Pensión de alimentos, divorcios, relación directa y regular (régimen de visitas)
+Solicite su asesoría!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Somos un Estudio de Abogados con oficina a escasos metros de Palacio de Tribunales de Concepción. Nuestro equipo de abogados y procuradores atiende con rapidez y efectividad en la resolución de problemáticas a lo largo de todo el país, brindando servicios de calidad gracias a la amplia experiencia en distintas áreas del derecho con que cuentan su equipo de Abogados y Procuradores.
+Tenemos un amplio compromiso con el desarrollo, el perfeccionismo y la experiencia profesional de Clark&amp;Cía Abogados, que a lo largo de sus años a obtenido tanto en el sector público como privado, son absolutas garantías de su excelencia.
+</t>
+  </si>
+  <si>
+    <t>Abogado titulado de la Universidad de Chile de Valparaíso, con más de 30 años de experiencia en el ejercicio libre de la profesión en la ciudad de Viña del Mar. Comenzando a ejercer en el estudio de los abogados José Hinzpeter González y Octavio Pizarro Costa.
+En la actualidad trabajando con su socio Miguel Ángel Allendes Cisternas.
+Dedicado a la asesoría tanto de personas naturales como de empresas, en el área civil con materias de familia, tales como divorcios, pensiones de alimentos, visitas y en materia penal asumiendo la defensa y representación de imputados y de víctimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somos especialista de alta complejidad, otorgando soluciones legales en base a un alto nivel de especialización, compromiso y confidencialidad. El trabajo en equipo ejecutado por nuestros profesionales de alto nivel,  estableciendo estrategias jurídicas especializadas y asertivas decantando como resultado en el éxito deseado por nuestros clientes. </t>
+  </si>
+  <si>
+    <t>Abogado Familia, Laboral, Civil.</t>
+  </si>
+  <si>
+    <t>Mi Trabajo consiste en el Ejercicio privado de la profesión, como litigante en juicios laborales y ante la Inspección del Trabajo.  Además de ser Asesor de empresas y personas naturales en las distintas áreas del Derecho laboral y Abogado Inspección Comunal del Trabajo Norte Chacabuco, Encargado de dar orientación a los usuarios, resolver reconsideraciones administrativas de multas, objeciones de legalidad en procesos de negociación colectiva, denuncias por vulneración de derechos fundamentales, defensa judicial de reclamaciones de multas.Me he desempeñado como Abogado de la Inspección Comunal del Trabajo Santiago Norte, Dirección del Trabajo, encargado de Resoluciones de reconsideraciones administrativas de multas, objeciones de legalidad en procesos de negociación colectiva, denuncias por vulneración de derechos fundamentales y atención de usuarios. Antecedentes Académicos:  Magíster  en Gestión y Planificación Tributaria Universidad de Santiago de Chile.Postítulo en Legislación Tributaria Universidad de Santiago de Chile.Curso: Actualización Jurídica Nuevas Tendencias del Derecho Civil Universidad del Desarrollo, Facultad de Derecho.Curso: Actualización Jurídica Universidad del Desarrollo, Facultad de Derecho.Carrera de Derecho Universidad del Desarrollo.Título Profesional de Abogado.</t>
+  </si>
+  <si>
+    <t>Nos especializamos en asesoría sindical, derecho laboral, negociación colectiva, asuntos derivados de las relaciones de trabajo, derechos fundamentales de los trabajadores, seguridad social y previsional, además de accidentes del trabajo y enfermedades profesionales.</t>
+  </si>
+  <si>
+    <t>Parot &amp; Asociados en un estudio que tiene como pilares fundamentales la honestidad, la transparencia y la eficiencia, donde un grupo de dedicados y destacados profesionales se abocarán para darle un servicio de la mayor calidad y del primer nivel.El Estudio se distingue por tener un alto estándar de confidencialidad, acaso uno de los más rigurosos del ámbito profesional. Es por ello que su cartera de clientes es estable y se incrementa a lo largo del tiempo.</t>
+  </si>
+  <si>
+    <t>Somos un Estudio Jurídico con amplia experiencia en el área del derecho de familia, estando capacitados para tramitar todo tipo de demandas y solicitudes.
+Nuestra motivación es la solución a los conflictos familiares, haciendo nuestro mayor esfuerzo en ayudar a enfrentar las difíciles consecuencias que provoca un conflicto de esta naturaleza.
+Somos conscientes que no basta solo con un buen abogado, sino siempre es necesario un equipo multidisciplinario que pueda dar soluciones de manera personalizada, integral, rápida, eficiente y comprometida.</t>
+  </si>
+  <si>
+    <t>Somos Sarmiento Núñez y Asociados, una empresa dedicada a la asesoría legal, abogados laborales, asesoría penal, etc. En Sarmiento Núñez y Asociados tenemos como objetivo principal la calidad de nuestros servicios para satisfacer de la mejor forma posible la necesidad de nuestros clientes de manera óptima y oportuna.</t>
+  </si>
+  <si>
+    <t>ABOGADO JOHANA PAOLA GODOY ESCOBAR. 
+Profesional de gran experiencia, se caracteriza por un servicio personalizado, eficiente y altamente calificado, en donde se privilegia la calidad y la cercanía con sus clientes. Nuestro objetivo es brindar el más alto estándar profesional, en los servicios que entrego a mis clientes, sean estas personas naturales, empresas u otras instituciones, entregándoles la mejor asesoría legal en cualquier ámbito del Derecho que sea requerido.
+Especialización: ABOGADO DERECHO PENAL - ABOGADO DERECHO DE LA FAMILIA - ABOGADO DERECHO LABORAL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Latorre &amp; Cia. Abogados: Ex Abogados de SII 
+ Somos un estudio de abogados boutique, que presta servicios en las diversas áreas del ejercicio profesional, especialmente en la litigación de juicios complejos y asesorías en el área tributaria, comercial, penal, civil, entre otras áreas, brindando un servicio de excelencia para nuestros clientes.
+ El equipo de Latorre &amp; Cía Abogados trabaja con altos estándares éticos y está comprometido siempre con el bienestar y los intereses de sus clientes.
+LIDERAZGO. Con innovación y profesionalismo, Latorre &amp; Cía enfrenta las transformaciones de la sociedad chilena y los desafíos de las nuevas tecnologías y la especialización.
+</t>
+  </si>
+  <si>
+    <t>Staff de abogados asociados, altamente calificados, que se desarrollan en las más variadas áreas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagedorn &amp; Belmar Abogados ha estado presente en la ciudad de Puerto Montt y demás comunas de la Provincia de Llanquihue desde el año 1987, contando con abogados de larga trayectoria y vasta experiencia en litigios de toda índole, redacción de contratos, convenios y escrituras diversas, así como asesoría especializada a empresas y particulares en materia laboral, comercial, cobranzas y otras.
+</t>
+  </si>
+  <si>
+    <t>Tapia Elorza &amp; Cia. Abogados es un despacho jurídico que se encuentra ubicado en el sur de nuestro país en la ciudad de Concepción, desde donde brinda un completo servicios en diferentes áreas del derecho.
+El estudio de abogados está compuesto por profesionales de gran trayectoria, experiencia y nivel que entregan a cada uno de sus clientes una atención cercana, preocupada, responsable, justa y honesta, lo cual les permite entregarles una completa asesoría jurídica - legal y obtener excelentes resultados en cada uno de sus casos.</t>
+  </si>
+  <si>
+    <t>Estudio Jurídico Valderrama; Somos un Equipo de Abogados multidisciplinario, apoyados por profesionales de las diversas áreas como lo son Peritos Judiciales, Asistentes Sociales, Psicólogos, Ingenieros Comerciales, Contadores Auditores e Ingenieros de áreas especializadas.Nuestro trabajo comienza desde la planificación, hasta la consolidación comercial de la Exportación o Importación en Temuco Novena RegiónContamos con un servicio de primer nivel, avalado por 18 años de experiencia, además estamos asociados con 45 países del mundo, y con Asesoría de Arica a Punta Arenas con destacados profesionales en cada una de las áreas, y estamos certificados por PROCHILE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABOGADOS DIAZ Y ASOCIADOS, Somos un estudio jurídico, especialistas en DERECHO INMOBILIARIO - DERECHO DE FAMILIA - DERECHO CIVIL.  El trabajo en equipo ejecutado por nuestros profesionales de alto nivel, establece estrategias jurídicas especializadas y asertivas, destacando como resultado, el éxito deseado por nuestros clientes.
+Nos encanta brindarles la mejor asesoría a todos nuestros clientes en las diferentes áreas. por eso cuentan con nuestro respaldo, especialización, compromiso y confidencialidad.
+Abogados en Villa Alemana, Abogados Derecho Civil en Villa Alemana, Abogados de Familia en Villa Alemana, Testamentos en Villa Alemana, Redacción de Escrituras en Villa Alemana, Posesión Efectiva en Villa Alemana, Estudio de Títulos en Villa Alemana, Venta de Propiedades en Villa Alemana, Abogados en Quilpué, Abogados Derecho Civil en Quilpué, Abogados de Familia en Quilpué, Testamentos en Quilpué, Redacción de Escrituras en Quilpué, Posesión Efectiva en Quilpué, Estudio de Títulos en Quilpué, Venta de Propiedades en Quilpué, Abogados en Limache, Abogados Derecho Civil en Limache, Abogados de Familia en Limache, Testamentos en Limache, Redacción de Escrituras en Limache, Posesión Efectiva en Limache, Estudio de Títulos en Limache, Venta de Propiedades en Limache.						
+</t>
+  </si>
+  <si>
+    <t>ABOGADOS A TU SERVICIOTU CAUSA ES NUESTRA PRIORIDAD, CONSEGUIR LA EXCELENCIA ESTÁ EN TUS MANOS.En Identidad Legal, nos identificamos con los problemas de nuestros clientes. Nuestra identidad es el compromiso y el acceso a una defensa de calidad. Estar frente a un proceso legal, no es fácil, es por eso que nuestro objetivo es acompañarte, que te sientas confiado y seguro de que nuestros abogados estarán siempre cerca en el área del derecho que necesites.Nos preocupamos de tu tranquilidad y de que la justicia esté a tu alcance.¡Confía en nosotros!</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ENRIQUE RAMIREZ VALDIVIA
+ABOGADO
+Director
+Abogado Tributario Let
+ASESORÍA y DEFENSA
+JURÍDICA y TRIBUTARIA
+SERVICIOS DE ASESORÍA JURÍDICA Y TRIBUTARIA A LAS PYMES MICROEMPRESAS
+Planificación y Constitución de la organización societaria, conducente a resguardar los derechos de los socios y a evitar errores de tributación, que impliquen actos que puedan calificarse por SII como elusivos de impuestos.-
+DEFENSA TRIBUTARIA
+Prestamos asesoría y defensa frente a FISCALIZACIONES DEL SII que determinen liquidaciones o giros errados, desproporcionados o injustos.
+Defendemos al Contribuyente ante el TRIBUNAL TRIBUTARIO Y ADUANERO (TTA), de liquidaciones y giros de impuestos; de la aplicación de sanciones y multas del SII.
+Defensa integral ante los Juzgados de Garantía y de Juicio Oral en lo Penal, frente a querella del SII por Delito Tributario.
+DEUDA DE IMPUESTO
+Defendemos a los deudores de impuestos en del cobro de la TESORERÍA GENERAL DE LA REPÚBLICA.
+VER SENTENCIAS FAVORABLES A LOS CONTRIBUYENTES
+Productos y Servicios
+ABOGADO
+SERVICIOS TRIBUTARIOS
+PRESCRIPCIÓN IMPUESTOS
+DEFENSA EN FISCALIZACIÓN, CITACIÓN, LIQUIDACIÓN y GIRO SII
+DEFENSA FISCALIZACIÓN Y QUERELLA DELITO TRIBUTARIO
+FACTURA IDEOLÓGICAMENTE FALSA
+JUSTIFICACIÓN DE INVERSIÓN
+GASTOS RECHAZADOS
+CRÉDITO INCOBRABLE
+DEPRECIACIÓN DE BIENES
+PERDIDA DE ARRASTRE
+BENEFICIOS TRIBUTARIOS A EXPORTADORES
+PLANIFICACIÓN TRIBUTARIA NO ELUSIVA
+ESTUDIO DE ESTRUCTURA Y CARGA TRIBUTARIA
+REORGANIZACIONES EMPRESARIALES, FUSIONES, DIVISIONES, ABSORCIONES
+NUEVOS REGÍMENES TRIBUTARIOS
+IMPUESTOS A ENAJENACIÓN DE BIENES RAÍCES
+BENEFICIOS TRIBUTARIOS A PYMES</t>
+  </si>
+  <si>
+    <t>01 Profesionales expertos
+Somos un grupo de abogados responsables y expertos en tramitación de causas en diferentes tribunales como en tribunal de familia de Pucon, tribunal de familia de Villarrica o tribunal de familia de Temuco entre otros.
+02 8 Años de experiencia
+Con más de 8 años de experiencia como abogado ofrecemos consulta legal gratis a todos nuestros clientes y siempre priorizando su interés y la defensa de sus derechos.
+03 Abogados Civiles
+Si lo que busca es un abogado civil en Pucon, Villarrica o Temuco somos lo que ud necesita ya que contamos con amplia experiencia tanto en causas civiles como en otros tramites.</t>
+  </si>
+  <si>
+    <t>Somos  Abogados Barraza Rojas &amp; Cía. Ltda., estudio jurídico con más de 23 años de experiencia  que nos han consolidado como una de las oficinas de abogados más grandes del Norte de Chile, representando y defendiendo a las Empresas.  Conscientes de las necesidades de nuestros clientes, contamos con un grupo de profesionales para el apoyo de cada gestión o caso, buscando siempre soluciones integrales. 
+Nuestro Equipo está conformado por Profesionales como: Juez Tributario, Abogado de la Tesorería,  Procurador de la Ilustrísima Corte de Apelaciones de Antofagasta.</t>
+  </si>
+  <si>
+    <t>Soy Abogado Nicolas Arismendi, dedicado a Asesoría Jurídica, master en Derecho Penal, asesoría Comercial y realizamos una completa asesoría legal pata ti o por tu empresa.  En Asesoría Jurídica tenemos como objetivo principal la calidad de nuestros productos y servicios para satisfacer de la mejor forma posible la necesidad de nuestros clientes de manera óptima y oportuna. Nuestros servicios cumplen estándares de alta calidad que garantizan la satisfacción de nuestros clientes.</t>
+  </si>
+  <si>
+    <t>Peralta y Cía. Abogados, estudio jurídico en la Sexta Región, prestamos asesoría legal en las diversas áreas del derecho, nuestra principal motivación es entregar a nuestros clientes la orientación y respaldo necesarios para hacer frente de manera correcta y adecuada a todas las contingencias legales que se enfrenten.
+Contamos con un equipo de abogados que uniendo su experiencia y conocimientos están en condiciones de asesorar y representar de manera eficaz a cualquier persona o empresa en las materias legales y litigios que forman parte de nuestras áreas de práctica.
+Nos interesa entregar un servicio de calidad, razón que nos mueve a exigir de nuestros abogados un estudio y perfeccionamiento constante en las diversas ramas sobre las que versan nuestros servicios, para así obtener una formación individual de cada profesional acorde con los requerimientos de nuestros clientes y seguir consolidándonos como un estudio jurídico serio, responsable y eficiente, con profesionales altamente calificados.</t>
+  </si>
+  <si>
+    <t>LOCUCIÓN  : ABOGADAS LABORALISTAS   ABOGADAS LABORALISTAS NUESTRA MISION ES DEFENDER  A LAS TRABAJADORAS Y TRABAJADORES,PROTEGERLOS ,EDUCARLOS Y ASESORARLOS EN EL RESPETO Y APLICACIÓN DE SUS DERECHOS,DE MANERA OPORTUNA E INFORMADA,CON UN LENGUAJE COMPRENSIBLE Y VERDADERO,GARANTIZANDO EN EL DESARROLLO DE ESTA LABOR : SERIEDAD,RESPONSABILIDAD LEALTAD Y COMPROMISO.  VISITENOS EN DOCTOR SOTERO DEL RIO 326 OF 1101  SANTIAGO CENTRO  FONO 26889765 O EN WWW.ABOGADASLABORALISTAS.CL</t>
+  </si>
+  <si>
     <t>ABOGADOS</t>
   </si>
   <si>
@@ -175,12 +2294,138 @@
     <t>OFICINA VIRTUAL</t>
   </si>
   <si>
+    <t>AUDITORES</t>
+  </si>
+  <si>
+    <t>ABOGADOS ASESORIAS JURIDICAS</t>
+  </si>
+  <si>
+    <t>ABOGADOS DE FAMILIA</t>
+  </si>
+  <si>
+    <t>CONTADORES</t>
+  </si>
+  <si>
+    <t>Abogado Laboral</t>
+  </si>
+  <si>
+    <t>RECEPTORES JUDICIALES</t>
+  </si>
+  <si>
+    <t>ABOGADOS DERECHO DE LA FAMILIA</t>
+  </si>
+  <si>
+    <t>ABOGADOS DERECHO PENAL</t>
+  </si>
+  <si>
+    <t>Abogados Derecho Laboral</t>
+  </si>
+  <si>
+    <t>ABOGADOS LABORALES</t>
+  </si>
+  <si>
+    <t>ABOGADOS PENALISTAS</t>
+  </si>
+  <si>
+    <t>ABOGADO TRIBUTARIO</t>
+  </si>
+  <si>
+    <t>ESTUDIO JURIDICO</t>
+  </si>
+  <si>
     <t>['Abogados en Temuco,', 'Abogados en Santiago,', 'Abogados Derecho Penal en Temuco,', 'Abogados Derecho Penal en Santiago,', 'Defensor Penal en Temuco,', 'Defensor Penal en Santiago,']</t>
   </si>
   <si>
     <t>['•\tASESORIA LEGAL Y CONTABLE', '•\tCONSTITUCION DE EMPRESAS', '•\tOFICINA VIRTUAL', '•\tOUTSORCING DE REMUNERACIONES Y LABORAL', '•\tSERVICIO CONTABLE PARA COLEGIOS SUBVENCIONADOS', '•\tDOMICILIO TRIBUTARIO', '•\tRESOLUCION SANITARIA SEREMI DE SALUD.']</t>
   </si>
   <si>
+    <t>['•\tCONTADORES', '•\t AUDITORES', '•\tASESORIA TRIBUTARIA Y CONTABLE', '•\t SERVICIO CONTABLE PARA COLEGIOS', '•\tASESORIA LABORAL', '•\tASESORIA LEGAL', '•\t SERVICIO DE REMUNERACIONES', '•\tCONSTITUCION DE EMPRESAS', '•\t OFICINA VIRTUAL', '•\tDOMICILIO TRIBUTARIO', '•\tOUTSORCING']</t>
+  </si>
+  <si>
+    <t>['NOTIFICACIONES', 'EMBARGOS', 'PRUEBA TESTIMONIAL', 'NOTIFICACIONES JUDICIALES', 'ALZAMIENTOS CBR Y REGISTRO CIVIL', 'JUICIO EJECUTIVO', 'RECEPTORA JUDICIAL']</t>
+  </si>
+  <si>
+    <t>['El Centro de Mediación Bicentenario es una entidad del alto prestigio orientado a la prestación de servicios de mediación en la resolución de mutuo acuerdo en materia de :', 'PENSIONES DE ALIMENTOS:', 'PRIMERA REGULACIÓN', 'AUMENTOS', 'REBAJAS', 'CESES (TÉRMINO)', 'DEUDAS', 'CUIDADO PERSONAL (TUICIÓN):', 'PRIMERA REGULACIÓN', 'MODIFICACIÓN', 'CUIDADO PERSONAL COMPARTIDO', 'RELACIÓN DIRECTA Y REGULAR (RÉGIMEN DE VISITAS)', 'PRIMERA REGULACIÓN', 'MODIFICACIÓN', 'SUSPENSIÓN', 'VISITAS SOLICITADAS POR ABUELOS CON SUS NIETOS', 'Además nuestro centro realiza informes de peritaje social a víctimas e imputados como asimismo informes socioeconómicos.  Nuestra mediadora es también Perito Social quien mantuvo convenios durante 11 años con la Defensoría Penal Pública.', 'Contamos con una vasta trayectoria en la realización de mediaciones aprobadas con resolución judicial avalada por la atención de más de mil usuarios a la fecha.', 'Ofrecemos un servicio de calidad, rápido , económico y eficiente con resoluciones judiciales obtenidas en promedio a tan solo 1 semana de efectuada la audiencia de mediación en nuestra oficina.']</t>
+  </si>
+  <si>
+    <t>['INFORMACIÓN AL CORREO:', 'CAMPOSYCIA@GMAIL.COM']</t>
+  </si>
+  <si>
+    <t>['ASESORÍA y DEFENSA JURÍDICA y TRIBUTARIAA)\tSERVICIOS DE ASESORÍA JURÍDICA Y TRIBUTARIA A LAS PYMES MICROEMPRESASPlanificación y Constitución de la organización societaria, conducente a resguardar los derechos de los socios y a evitar errores de tributación, que impliquen actos que puedan calificarse por SII como elusivos de impuestos.-Planificación Tributaria No ElusivaEstudio De Estructura Y Carga TributariaReorganizaciones Empresariales, Fusiones, Divisiones, AbsorcionesNuevos Regímenes TributariosImpuestos A Enajenación De Bienes RaícesBeneficios Tributarios A PymesB)\tDEFENSA TRIBUTARIAPrestamos asesoría y defensa frente a FISCALIZACIONES DEL SII que determinen liquidaciones o giros errados, desproporcionados o injustos.DEFENSA EN FISCALIZACIÓN, CITACIÓN, LIQUIDACIÓN y GIRO SIIDEFENSA FISCALIZACIÓN Y QUERELLA DELITO TRIBUTARIO FACTURA IDEOLÓGICAMENTE FALSAJUSTIFICACIÓN DE INVERSIÓNGASTOS RECHAZADOSBENEFICIOS TRIBUTARIOS A EXPORTADORESDefendemos al Contribuyente ante el TRIBUNAL TRIBUTARIO Y ADUANERO (TTA), de liquidaciones y giros de impuestos; de la aplicación de sanciones y multas del SII.Defensa integral ante los Juzgados de Garantía y de Juicio Oral en lo Penal, frente a querella del SII por Delito Tributario.C)\tDEFENSA ANTE COBRO DE DEUDA DE IMPUESTODefendemos a los deudores de impuestos en del cobro de la Tesorería General de la República.D)\tPRESCRIPCIÓN DEL COBRO DE IMPUESTOSEliminación total y definitiva de la deuda de impuestos, vía declaración Judicial de Prescripción de deuda']</t>
+  </si>
+  <si>
+    <t>['Asesoramos a personas Naturales y Empresas.', 'Tanto como defensa y querellante', '•Robos', '•Lesiones', '•Estafas', '•Homicidios', '•Amenazas', '•Apropiación indebida', '•Delito de corrupción entre privados', '•Abusos sexuales', '•Estupro', '•Reproducción de material pornográfico infantil', '•Violación', '•Ley Emilia y manejo en estado de ebriedad', '•Administración desleal', '•Insolvencia Punible (quiebras)', '•Delitos contra la propiedad intelectual e industrial', '•Corrupción', '•Fraude al fisco', '•Delitos Tributarios', '•Delitos aduaneros', '•Delitos contra el mercado', '•Delitos de receptación y lavado de dinero', '•Delitos contra el medio ambiente', '•Delitos de abuso de información privilegiada', '•Delitos contra la libre competencia', 'Asesoramiento a personas jurídicas:', '•Prevención de riesgos penales en la empresa', '•Defensa penal corporativa', '•Derecho administrativo sancionador', '•Responsabilidad penal de la empresa Ley 20.393', '•Asesoría en Compliance', '•Asesoría en Criminal Compliance', '•Investigaciones internas']</t>
+  </si>
+  <si>
+    <t>['•\tAbogado de familia', '•\tAbogado laboral', '•\tAbogado civil']</t>
+  </si>
+  <si>
+    <t>['Clark &amp; Cía. Abogados, somos expertos. Nuestro Estudio Jurídico cuenta con una amplia experiencia en casos de insolvencia y quiebras, liquidaciones, acuerdos de reorganización y reestructuraciones, habiendo representando judicial y extrajudicialmente a decenas de personas naturales, empresas deudoras, acreedores y terceros interesados.', 'Licenciado en Ciencias Jurídicas de la Universidad de Concepción.  Especialista en Materia Civil, Comercial y Laboral. Magister© en Derecho Privado, Universidad de Concepción.']</t>
+  </si>
+  <si>
+    <t>['Asesorías en materias de familia - Pensiones de alimentos  - Visitas - Divorcios - Asesorías penales - Defensa y representación de imputados y víctimas - Contratos varios:   Compraventa, Constitución de Sociedades, Modificación de Sociedades, Arrendamientos,   otros.']</t>
+  </si>
+  <si>
+    <t>['Otorgamos la asesoría y representación en las siguientes materias:', 'DERECHO ADMINISTRATIVO', 'Defensa de los funcionarios ante procedimientos disciplinarios.', 'DERECHO CIVIL', 'Arrendamiento', 'Contratos y Escrituras (Constitución, Modificación y Disolución de Sociedades, liquidación de Sociedad Conyugal, Compraventa, Arrendamiento, Usufructo, Uso y Habitación, Cesión de Derechos, Testamentos)', 'Precario', 'Cobranzas', 'Cambio de nombre', 'Posesión efectiva', 'Interdicciones', 'Particiones', 'Resolución y Nulidad de Contrato', 'Indemnización de perjuicios', 'Tercerías', 'Autorización de Enajenar; Entre otras.', 'DERECHO DE FAMILIA', 'Divorcios mutuo acuerdo y divorcios unilaterales', 'Pensión de Alimentos', 'Cuidados Personales (Custodia)', 'Relación Directa y Regular (Visitas)', 'Reconocimiento de Paternidad', 'Autorización de Salida del País', 'Autorización para enajenar', 'Declaración de Bien Familiar', 'Violencia Intrafamiliar', 'Medidas de Protección', 'POLICÍA LOCAL', 'Infracción a normas del consumidor', 'Infracción a la Ley de Tránsito', 'AREA SALUD', 'Contamos con convenios para defensa de FUNCIONARIOS DE SALUD.']</t>
+  </si>
+  <si>
+    <t>['Demanda alimentos, visitas, cuidado personal, divorcios, bien familiar, otros.']</t>
+  </si>
+  <si>
+    <t>['* Servicios en el Área Laboral en todas las comunas de Santiago.', '* Juicios Civiles.', '* Demandas y Defensas', '* Asesorías Legales.', '* Atención Personalizada', '* Defensa Laboral a Empleadores y Trabajadores.']</t>
+  </si>
+  <si>
+    <t>['- Asesoría Sindical', '- Negociación Colectiva', '- Juicios Laborales', '- Abogados Laborales', '- Defensa de Derechos Fundamentales en el Trabajo', '- Representación de los Derechos de los Trabajadores', '- Representación de los Derechos de Organizaciones Sindicales', '- Asesoría y Defensa Jurídica para Sindicatos', '- Asesoría y Defensa Jurídica para Trabajadores', '- Consulta Jurídica', '- Sindicato de Trabajadores']</t>
+  </si>
+  <si>
+    <t>['Nuestro estudio ofrece una amplia gama de ramas del derecho, donde nuestros mejores profesionales estarán volcados a satisfacer sus necesidades específicas para brindarle una Asesoría Jurídica Integral de primer nivel, donde le otorgarán tranquilidad, transparencia y soluciones concretas  en área de Litigios, Conflictos y solución de Controversias relativas a Derecho Civil, Laboral, Corporativo y Administrativo.Santiago - Casablanca -  Melipilla, Valparaíso y regiones.']</t>
+  </si>
+  <si>
+    <t>['Pensión de AlimentosDivorcios (Divorcio Culposo, Divorcio Mutuo Acuerdo, Divorcio Unilateral)Cuidado Personal (Tuición)Relación Directa y Regular (visitas)Cambio de nombre y/o apellidoPosesión EfectivaTestamentosCese de AlimentosRebaja o Aumento de AlimentosAlimentos para el cónyugeAutorización para Salir del PaísJuicios de FiliaciónLiquidación de Sociedad ConyugalViolencia Intrafamiliar']</t>
+  </si>
+  <si>
+    <t>['1. Defensa Penal.2. Área empresarial y laboral.3. Defensa ante Tribunales Civiles y de Familia.4. Asesoría Jurídica Preventiva.']</t>
+  </si>
+  <si>
+    <t>['Litigación En Causas Penales - Litigación En Causas Familiares - Litigación En Causas LaboralesAbogados de Familia - Abogados Laborales - Abogados Penales..']</t>
+  </si>
+  <si>
+    <t>['ABOGADOS DE FAMILIA', 'ABOGADOS CIVILES', 'ABOGADOS LABORALES', 'ABODADO DERECHO PENAL', 'ABOGADO DE DIVORCIOS', 'ABOGADO DE DESPIDO', 'ABOGADO DE ABUSO SEXUAL', 'ABOGADO DE ABUSO DEL TRABAJO', 'ABOGADO DE TRAFICO DE DROGAS']</t>
+  </si>
+  <si>
+    <t>['Juicios Tributarios', 'Juicios  Tesorería', 'Planificación Tributaria', 'Multas Tributarias', 'Infracciones Tributarias', 'Prescripción de Impuestos', 'Abogados en Rancagua', 'Abogados Derecho Civil en Rancagua', 'Abogados Tributario en Rancagua', 'Abogado de Comercio en Rancagua']</t>
+  </si>
+  <si>
+    <t>['Mediaciones - Derecho Laboral - DueDiligence Laboral - Derecho Civil - Derecho Sucesorio - Redacción de Escrituras - Gestión Legal a Distancia - Juzgado de Policía Local - Derecho Penal - Asesorías Tributarias - Divorcios Unilaterales o Mutuo Acuerdo - Divorcio por Culpa - Separación Judicial - Juicios de Alimentos - Juicios de Visitas - Entregas Inmediata de Niños - Juicios de Adopción - Juicios de Cuidado Personal - Autorización para Salir del País - Interdicciones - Autorizaciones para Enajenar - Liquidación de Sociedad Conyugal - Pacto de Separación de Bienes - Declaración de Bien Familiar - Violencia Intrafamiliar - Medidas Cautelares', 'Derecho de familia, Tributario, Laboral, Penal, Civil, Comercial, de Familia, Laborales, Penalistas, Divorcio, Herencia, Testamento, Separación, Pención Alimenticia, Asesorías Tributarias.']</t>
+  </si>
+  <si>
+    <t>['Hagedorn &amp; Belmar atiende asuntos referidos a: Juicios Laborales, Indemnización de perjuicios, Contratos, Herencias, cobranzas, Arbitrajes.']</t>
+  </si>
+  <si>
+    <t>['Derecho Penal  en Concepción Derecho Civil en Concepción Derecho Tributario en Concepcion Derecho Comercial en Concepción Derecho Laboral en Concepción  Derecho Familiar en Concepción Propiedad Intelectual y Registro de Marcas, etc.']</t>
+  </si>
+  <si>
+    <t>['Estudio Jurídico Valderrama;Asesorías en Exportaciones en TemucoAsesorías en Importaciones en Temuco,Asesorías Tributarias en Temuco,Asesorías Comerciales en TemucoAsesorías Aduaneras en TemucoAsesorías de Derecho Civil en TemucoAsesorías de Derecho Penal en TemucoAsesorías de Derechos de Familia en TemucoAsesorías de Evaluación de Impacto Ambiental Juicios en Temuco Juicios de Familia en TemucoAbogados en TemucoAsesorías Judiciales en TemucoAsistente Social en TemucoPsicólogos en TemucoIngenieros Comerciales en TemucoContadores Auditores en temuco']</t>
+  </si>
+  <si>
+    <t>['Derecho Inmobiliario :', 'Estudio de Títulos', 'Redacción de Escrituras', 'Testamentos', 'Cesión de Derechos', 'Posesión Efectiva', 'Derecho de Familia', 'Derecho Civil', 'Asesorías Jurídicas']</t>
+  </si>
+  <si>
+    <t>['ÁREAS LEGALES:DELITOS ECONOMICOSCOMPLIANCELABORAL : (área empresas y área trabajadores) Asesorías y Capacitaciones.PENALFAMILIACIVIL - SOCIEDADESPOLICÍA LOCALINMOBILIARIO']</t>
+  </si>
+  <si>
+    <t>['A) SERVICIOS DE ASESORÍA JURÍDICA Y TRIBUTARIA A LAS PYMES MICROEMPRESASB) DEFENSA TRIBUTARIAC) DEFENSA ANTE COBRO DE DEUDA DE IMPUESTOD) PRESCRIPCIÓN DEL COBRO DE IMPUESTOSE) DEFENSA ANTE EL TTA, POR FISCALIZACIÓN, CITACIÓN, LIQUIDACIÓN, Y GIRO DEL SII, POR:     - Justificación de Inversión     - Facturas ideológicamente falsa     - Observaciones a declaración de Renta     - Gastos Rechazados']</t>
+  </si>
+  <si>
+    <t>['Indemnización', 'Tramitamos demandas de indemnización de perjuicios tanto por incumplimientos de contrato como aquellos originados de otras formas.', 'Juicios Embargo', 'Representamos en el cobro de deudas y también defendemos deudores en demandas en su contra (juicio deuda o defensa deudores)', 'Tribunal de Familia', 'Tramitamos demanda de divorcio, demandas de alimentos, demandas de visitas, demandas de tuicion, paternidad, salida del país y otras', 'Abogado Penal', 'Contamos con abogado penal experto en el área a fin de asumir su defensa legal o bien en la presentación de querellas penales por delitos', 'Compraventas', 'Realizamos compraventas, promesas y juicio de partición en tribunales civiles con responsabilidad al ser juicios de larga tramitación', 'Juicio Arriendo', 'Cobro de rentas impagas, termino de contrato de arriendo, desahucio, desalojo de propiedad, e incluso tramitamos juicio precario', 'Divorcios', 'Realizamos divorcios unilaterales, de mutuo acuerdo y por culpa en los tribunales de familia. Además de tramitar la correspondiente Compensación Económica', 'Violencia Intratamiliar', 'Tramitamos en forma exitosa causas de violencia intrafamiliar y medidas de protección a favor de niños, niñas y adolescentes priorizando su bienestar.', 'Llámanos - (+56940620237)', 'Consulta legal Gratis']</t>
+  </si>
+  <si>
+    <t>['Abogados de Empresas en Antofagasta en las áreas de : Derecho Civil , Derecho Comercial, Derecho Tributario, Derecho Minero, Derecho Público, Derecho de Familia donde tenemos un experto en esa área.', 'Abogados de Empresas con Asesoría Legal y Asesoría Jurídica.']</t>
+  </si>
+  <si>
+    <t>['Juicios de Familia ( Divorcios, Alimentos, Relación Directa y Regular, Cuidado Personal ), Juicios Laborales ( Despidos Injustificados ), Juicios Penales, Juicios Civiles, Terceria, Remates.']</t>
+  </si>
+  <si>
     <t>abogados, abogados derecho penal, defensor penal, abogados penalistas, estudio juridico, derecho penal, Abogado Sergio Diaz - Amarillas.com</t>
   </si>
   <si>
@@ -196,6 +2441,414 @@
     <t>oficina virtual, normalizacion problemas tributarios en sii, creacion de empresas extranjeras, rut de inversionista extranjero, asesoria legal y contable, abogados y contadores, BCK  ABOGADOSY CONTADORES AUDITORES - Amarillas.com</t>
   </si>
   <si>
+    <t>auditores, contadores, contabilidades, asesorias tributarias y contables, abogados tributarios, administracion de edificios, BCG CONTADORES AUDITORES Y ABOGADOS - Amarillas.com</t>
+  </si>
+  <si>
+    <t>auditores, contadores, contabilidades, asesorias tributarias y contables, constitucion de sociedades y oficina virtual, abogados tributarios, BCM CONTADORES AUDITORES Y ABOGADOS - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados asesorias juridicas, abogados lex juicios - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados de familia, Abogados Maipu - Amarillas.com</t>
+  </si>
+  <si>
+    <t>oficina virtual, creacion de empresas extranjeras, rut de inversionista extranjero, asesoria legal y contable, abogados y contadores, servicio contable para pymes, BCK  ABOGADOS Y CONTADORES AUDITORES - Amarillas.com</t>
+  </si>
+  <si>
+    <t>contadores, auditores, contabilidades, administracion de edificios, constitucion de sociedades y oficina virtual, abogados tributarios, BCK CONTADORES AUDITORES Y ABOGADOS - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogado laboral, Sarmiento &amp; Núñez Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>receptores judiciales, lanzamientos, prueba testimonial, embargos, receptor judicial, receptora judicial, RECEPTORA  ESPERGUEL - Amarillas.com</t>
+  </si>
+  <si>
+    <t>auditores, contadores, contabilidades, constitucion de sociedades y oficina virtual, asesorias tributarias y contables, abogados tributarios, BCG CONTADORES AUDITORES Y ABOGADOS - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados derecho de la familia, abogados de familia, derecho de familia, mediacion familiar, pension alimenticia, Centro de Mediación Bicentenario - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados derecho penal, Rodríguez Abogado Defensor Penal  - Amarillas.com</t>
+  </si>
+  <si>
+    <t>auditores, contadores, contabilidades, abogados tributarios, constitucion de sociedades y oficina virtual, administracion de edificios, BCG CONTADORES AUDITORES Y ABOGADOS - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados derecho laboral, Pleito Laboral Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, HANS MEYER BELTRAN - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados laborales, abogados derecho penal, abogados civiles, abogados de familia, abogados tributarios, abogados aduaneros, CAMPOS Y CIA ABOGADOS SEBASTIAN CAMPOS MIRANDA - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados penalistas, Abogados Luis  Urrutia - Amarillas.com</t>
+  </si>
+  <si>
+    <t>oficina virtual, inicio de actividad, creacion de empresas extranjeras, patente comercial, asesoria legal y contable, abogados y contadores, BCK  ABOGADOS Y CONTADORES AUDITORES - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogado tributario, asesoria tributaria, termino de giro, delito tributario, ayuda tributaria, bufete de abogados tributarios, Abogados R &amp; R - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados derecho penal, abogados, derecho penal, abogados penalistas, defensor penal, abogado de abuso sexual, BG Bustos Gómez Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados de familia, abogado laboral, abogado civil, abogados en migracion e inmigracion, ESTUDIO JURIDICO "SEGOVIA &amp; ASOCIADOS" - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Clark &amp; Cía Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Carlos S Arce Cornejo - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, estudio juridico, Estudio Jurídico Asesorías Acción Legal Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias juridicas, Estudio Jurídico Santis y Asociados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogado Laboral Rodrigo Muñoz Sandrock - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias juridicas, asesorias laborales, abogados laborales, asesorias sindicales, asesorias asociaciones funcionarios, Estudio Jurídico del Trabajador - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados de juicios, Parot &amp; Asociados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados de familia, pension alimenticia, abogados derecho de familia, abogados divorcios, divorcio comun acuerdo, Estudio Jurídico Defiende tu Familia - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Sarmiento &amp; Núñez Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho de la familia, abogados derecho penal, abogados de familia, abogados laborales, Abogada Johana Godoy Escobar - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho penal, abogados civiles, abogados de familia, abogados laborales, abogado de divorcios, Geisse y Asociados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogado tributario, abogados derecho civil, abogados derecho comercial, abogados, defensoria del contribuyente, abogados tesoreria, LATORRE &amp; CIA ABOGADOS TRIBUTARIOS  - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogado Rodrigo Sepúlveda - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho laboral, abogados escrituras, abogados derecho civil, abogados derecho de la familia, Hagedorn y Belmar Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho tributario, abogados derecho laboral, abogados derecho comercial, abogados civiles, abogados de familia, Tapia Elorza Y Compañía Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias inmobiliarias, estudio juridico, abogado tributario, abogados civiles, abogados de familia, Estudio Jurídico Valderrama, Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho civil, abogados derecho de la familia, testamentos, redaccion de escrituras, posesion efectiva, ABOGADOS DIAZ Y ASOCIADOS - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados civiles, abogados de familia, abogados laborales, abogados penalistas, despido injustificado, Abogado Orietta Rodríguez - Identidad Legal - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Demanda Colectiva AFP - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias tributarias, abogados tributarios, Abogado Tributario LET - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho de la familia, abogados derecho laboral, abogados derecho penal, abogados deudas, abogados civiles, Abogados Pucon.cl - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogados Barraza Rojas &amp; Cía. Ltda. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesoria juridica, abogados laborales, abogados derecho laboral, abogados derecho comercial, asesorias comerciales, Abogado Nicolas Arismendi - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Peralta y Cía Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Hay Solución - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Masabogados.cl - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados civiles, Abogados Valdivia - Amarillas.com</t>
+  </si>
+  <si>
+    <t>estudio juridico, abogados, Optima Defensa - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho penal, defensor penal, Abogado Sergio Díaz - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho de la familia, abogados derecho laboral, abogados derecho civil, Álvarez Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias legales, derecho civil, derecho penal, derechos del consumidor, servicios legales, Becker Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Juridico V &amp; V - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Julio Rojas Benavente Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogados de Familia Rancagua - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Herrera Sánchez Marcelo - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Guerrero y Cía. Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Ansaldi Dominguez, Carmen - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Dellafiori - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Bravo y Cía Rodrigo - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Tuane y Cía. Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Sota Abogada - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados de familia, abogados laborales, LZM Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Uribe Etxverria y Cía. Ltda. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Organismo Tecnico de Capacitacion y Abogado Patricio Cornejo - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogado civil, abogados de familia, abogados penalistas, abogado laboral, Antonio Arriagada Jaramillo Abogado - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogados Asociados &amp; Cia - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogados Guido Sepulveda Y Cia. Ltda. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Juan Pablo Iturriaga Cavieres, Abogado - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Bunster Henríquez Katiushka - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho de la familia, Ulloa, Monge, Schubert &amp; Cia. Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Advis Mondaca, Ricardo - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Juridico Quasar - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Retamal Grimberg María Loreto - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Rubio Ruiz de Gamboa, Carlos - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Lewin y Cía. Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Juridico Acevedo Asociados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Daguerressar Caldera Carlos Andrés - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Cáceres Squella Gabriel Eduardo O. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogados Asesores y Consultores - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias, asesorias comerciales, seguros, Abuauad &amp; Cía. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Bravo Tesseo, Jorge - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Bufete de Abogados Ohiggins - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, servicios juridicos, Area Judicial - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias juridicas, Vicente Estudio Jurídico - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Soza y Cia Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Rabuco Cañas, Ricardo - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Juridico Veronica Bustamante - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, suero de leche, Abogados Estudio Juridico Robinson Quelin - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias juridicas, asesorias comerciales, asesorias laborales, abogados derecho tributario, abogados derecho laboral, Daslav Omerovic y Asociados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Raposo Rojas, Alberto - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Steuer Stehn Helmuth - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, estudio juridico, L&amp;H Abogados Ltda - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Rogel y Asociados, Aníbal - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Orlando Poblete y Compania Limitada - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Contreras Fuentes Carlos - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias juridicas, Jerez Dávila, Juan José - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Cortés Tapia Patricia - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Sebastian Tello Mura - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Consultora Legal - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, De Iruarrizaga, Arnaiz y Cía. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Jurídico Naranjo y Asociados Ltda. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogada Elizabeth Kobus - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias juridicas, Gálvez LLanos, Jorge Eduardo - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Jurídico Rubén Díaz y Asociados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, marcas y patentes, Johansson &amp; Langlois - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogado Daniel Guevara Cortés - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Mcys Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Rencoret Balbontín, Andrés - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Juridico Defensa Go - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Barra y Cía. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Vergara Labarca &amp; Cía. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, articulos para laboratorios, asociaciones gremiales, cobranzas, constructoras, servicios de informacion, TransUnion Soluciones de Informacion Chile S.A - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Muñoz &amp; Pirtzl Ltda. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Iturra Astudillo, Fernando Fidel - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Gestab - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, abogados derecho laboral, Juicios Laborales Mario Garay Martínez - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias juridicas, abogados derecho laboral, Abogadas Laboralistas - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Holzapfel Gross, Gastón - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Jean Pierre Matus - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Estudio Jurídico Hernández &amp; Villegas - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias a pequeña y mediana empresa, consultores en negocios internacionales, Asesoría Legal Comercial Y &amp; N Ltda. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Asesorias Legales - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Bordachar Urrutia Rodrigo - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, DYP Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Jiménez Trejo Patricio - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogados del Maule - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Pomar Carrasco Y Compania Limitada - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Peréz Correa y Sanguino Ltda. - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Albornoz Pollmann Abogados - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, asesorias juridicas, estudio juridico, Yuseff y Compañía - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogados HUGO CIRO CABRERA TORRES - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, aseo industrial, comercio exterior, constructoras, financieras, mineria, Aseo Industrial Alondra - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Miss Legal - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogados Debia y Figueroa - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Pérez-Cotapos Contreras Juan José - Amarillas.com</t>
+  </si>
+  <si>
+    <t>abogados, Abogado Patricio Martinez Fuentes - Amarillas.com</t>
+  </si>
+  <si>
     <t>chile</t>
   </si>
   <si>
@@ -203,6 +2856,117 @@
   </si>
   <si>
     <t>https://www.mercantil.com/images/companylogos/img-2001911-15225520101.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001904-15204242669.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001909-15222714106.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001910-15223839854.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001908-1522930264.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001421-1922378208.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001907-15213624309.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00672421.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001906-15212054871.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2000806-1817516492.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001520-61294894.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001912-1523525974.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00705710.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2002230-913572616.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2002135-23212618576.JPG</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00650359.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00671962.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00683003.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00679843.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00587268.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00697136.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00618533.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00705676.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00685127.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00578520.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00695398.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2002317-3224017694.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00589254.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-120058-7102252261.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00575244.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00614269.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2001290-9162411420.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00672529.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00664042.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/imagenes/images/companylogos/00689590.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2000825-22134220698.png</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-2000603-10151952595.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.mercantil.com/images/companylogos/img-341864-25171640579.PNG</t>
   </si>
 </sst>
 </file>
@@ -573,7 +3337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,37 +3389,37 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>432</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>564</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>642</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>687</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>723</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>741</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>772</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>913</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>58</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -663,28 +3427,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>433</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>565</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>643</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>724</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>773</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -692,28 +3456,28 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>566</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>644</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>725</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>774</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -721,28 +3485,28 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>567</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>645</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>726</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>775</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -750,37 +3514,4303 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F6" t="s">
+        <v>646</v>
+      </c>
+      <c r="G6" t="s">
+        <v>688</v>
+      </c>
+      <c r="H6" t="s">
+        <v>727</v>
+      </c>
+      <c r="J6" t="s">
+        <v>742</v>
+      </c>
+      <c r="K6" t="s">
+        <v>776</v>
+      </c>
+      <c r="L6" t="s">
+        <v>913</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F7" t="s">
+        <v>647</v>
+      </c>
+      <c r="G7" t="s">
+        <v>689</v>
+      </c>
+      <c r="H7" t="s">
+        <v>728</v>
+      </c>
+      <c r="J7" t="s">
+        <v>743</v>
+      </c>
+      <c r="K7" t="s">
+        <v>777</v>
+      </c>
+      <c r="L7" t="s">
+        <v>913</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F8" t="s">
+        <v>648</v>
+      </c>
+      <c r="G8" t="s">
+        <v>690</v>
+      </c>
+      <c r="H8" t="s">
+        <v>728</v>
+      </c>
+      <c r="J8" t="s">
+        <v>743</v>
+      </c>
+      <c r="K8" t="s">
+        <v>778</v>
+      </c>
+      <c r="L8" t="s">
+        <v>913</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F9" t="s">
+        <v>649</v>
+      </c>
+      <c r="H9" t="s">
+        <v>729</v>
+      </c>
+      <c r="K9" t="s">
+        <v>779</v>
+      </c>
+      <c r="L9" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" t="s">
+        <v>572</v>
+      </c>
+      <c r="F10" t="s">
+        <v>649</v>
+      </c>
+      <c r="H10" t="s">
+        <v>730</v>
+      </c>
+      <c r="K10" t="s">
+        <v>780</v>
+      </c>
+      <c r="L10" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" t="s">
+        <v>568</v>
+      </c>
+      <c r="F11" t="s">
+        <v>644</v>
+      </c>
+      <c r="G11" t="s">
+        <v>688</v>
+      </c>
+      <c r="H11" t="s">
+        <v>727</v>
+      </c>
+      <c r="J11" t="s">
+        <v>742</v>
+      </c>
+      <c r="K11" t="s">
+        <v>781</v>
+      </c>
+      <c r="L11" t="s">
+        <v>913</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" t="s">
+        <v>436</v>
+      </c>
+      <c r="E12" t="s">
+        <v>573</v>
+      </c>
+      <c r="F12" t="s">
+        <v>650</v>
+      </c>
+      <c r="G12" t="s">
+        <v>691</v>
+      </c>
+      <c r="H12" t="s">
+        <v>731</v>
+      </c>
+      <c r="J12" t="s">
+        <v>743</v>
+      </c>
+      <c r="K12" t="s">
+        <v>782</v>
+      </c>
+      <c r="L12" t="s">
+        <v>913</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" t="s">
+        <v>651</v>
+      </c>
+      <c r="H13" t="s">
+        <v>732</v>
+      </c>
+      <c r="K13" t="s">
+        <v>783</v>
+      </c>
+      <c r="L13" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" t="s">
+        <v>441</v>
+      </c>
+      <c r="F15" t="s">
+        <v>652</v>
+      </c>
+      <c r="G15" t="s">
+        <v>692</v>
+      </c>
+      <c r="H15" t="s">
+        <v>733</v>
+      </c>
+      <c r="J15" t="s">
+        <v>744</v>
+      </c>
+      <c r="K15" t="s">
+        <v>784</v>
+      </c>
+      <c r="L15" t="s">
+        <v>913</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>693</v>
+      </c>
+      <c r="L16" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E17" t="s">
+        <v>569</v>
+      </c>
+      <c r="F17" t="s">
+        <v>647</v>
+      </c>
+      <c r="G17" t="s">
+        <v>689</v>
+      </c>
+      <c r="H17" t="s">
+        <v>728</v>
+      </c>
+      <c r="J17" t="s">
+        <v>743</v>
+      </c>
+      <c r="K17" t="s">
+        <v>785</v>
+      </c>
+      <c r="L17" t="s">
+        <v>913</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E18" t="s">
+        <v>574</v>
+      </c>
+      <c r="F18" t="s">
+        <v>653</v>
+      </c>
+      <c r="G18" t="s">
+        <v>694</v>
+      </c>
+      <c r="H18" t="s">
+        <v>734</v>
+      </c>
+      <c r="J18" t="s">
+        <v>745</v>
+      </c>
+      <c r="K18" t="s">
+        <v>786</v>
+      </c>
+      <c r="L18" t="s">
+        <v>913</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>443</v>
+      </c>
+      <c r="E19" t="s">
+        <v>575</v>
+      </c>
+      <c r="F19" t="s">
+        <v>654</v>
+      </c>
+      <c r="H19" t="s">
+        <v>735</v>
+      </c>
+      <c r="K19" t="s">
+        <v>787</v>
+      </c>
+      <c r="L19" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" t="s">
+        <v>437</v>
+      </c>
+      <c r="F20" t="s">
+        <v>647</v>
+      </c>
+      <c r="G20" t="s">
+        <v>689</v>
+      </c>
+      <c r="H20" t="s">
+        <v>728</v>
+      </c>
+      <c r="J20" t="s">
+        <v>743</v>
+      </c>
+      <c r="K20" t="s">
+        <v>788</v>
+      </c>
+      <c r="L20" t="s">
+        <v>913</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" t="s">
+        <v>444</v>
+      </c>
+      <c r="E21" t="s">
+        <v>576</v>
+      </c>
+      <c r="F21" t="s">
+        <v>643</v>
+      </c>
+      <c r="H21" t="s">
+        <v>736</v>
+      </c>
+      <c r="K21" t="s">
+        <v>789</v>
+      </c>
+      <c r="L21" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" t="s">
+        <v>445</v>
+      </c>
+      <c r="E22" t="s">
+        <v>577</v>
+      </c>
+      <c r="F22" t="s">
+        <v>651</v>
+      </c>
+      <c r="H22" t="s">
+        <v>724</v>
+      </c>
+      <c r="K22" t="s">
+        <v>790</v>
+      </c>
+      <c r="L22" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" t="s">
+        <v>578</v>
+      </c>
+      <c r="F23" t="s">
+        <v>655</v>
+      </c>
+      <c r="G23" t="s">
+        <v>695</v>
+      </c>
+      <c r="H23" t="s">
+        <v>737</v>
+      </c>
+      <c r="J23" t="s">
+        <v>746</v>
+      </c>
+      <c r="K23" t="s">
+        <v>791</v>
+      </c>
+      <c r="L23" t="s">
+        <v>913</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" t="s">
+        <v>447</v>
+      </c>
+      <c r="E24" t="s">
+        <v>579</v>
+      </c>
+      <c r="F24" t="s">
+        <v>655</v>
+      </c>
+      <c r="G24" t="s">
+        <v>693</v>
+      </c>
+      <c r="H24" t="s">
+        <v>738</v>
+      </c>
+      <c r="K24" t="s">
+        <v>792</v>
+      </c>
+      <c r="L24" t="s">
+        <v>913</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F25" t="s">
+        <v>644</v>
+      </c>
+      <c r="G25" t="s">
+        <v>696</v>
+      </c>
+      <c r="H25" t="s">
+        <v>727</v>
+      </c>
+      <c r="J25" t="s">
+        <v>742</v>
+      </c>
+      <c r="K25" t="s">
+        <v>793</v>
+      </c>
+      <c r="L25" t="s">
+        <v>913</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" t="s">
+        <v>448</v>
+      </c>
+      <c r="E26" t="s">
+        <v>580</v>
+      </c>
+      <c r="F26" t="s">
+        <v>649</v>
+      </c>
+      <c r="G26" t="s">
+        <v>697</v>
+      </c>
+      <c r="H26" t="s">
+        <v>739</v>
+      </c>
+      <c r="J26" t="s">
+        <v>747</v>
+      </c>
+      <c r="K26" t="s">
+        <v>794</v>
+      </c>
+      <c r="L26" t="s">
+        <v>913</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" t="s">
+        <v>449</v>
+      </c>
+      <c r="E27" t="s">
+        <v>581</v>
+      </c>
+      <c r="F27" t="s">
+        <v>655</v>
+      </c>
+      <c r="G27" t="s">
+        <v>698</v>
+      </c>
+      <c r="H27" t="s">
+        <v>735</v>
+      </c>
+      <c r="J27" t="s">
+        <v>748</v>
+      </c>
+      <c r="K27" t="s">
+        <v>795</v>
+      </c>
+      <c r="L27" t="s">
+        <v>913</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" t="s">
+        <v>450</v>
+      </c>
+      <c r="E28" t="s">
+        <v>582</v>
+      </c>
+      <c r="F28" t="s">
+        <v>656</v>
+      </c>
+      <c r="G28" t="s">
+        <v>699</v>
+      </c>
+      <c r="H28" t="s">
+        <v>723</v>
+      </c>
+      <c r="J28" t="s">
+        <v>749</v>
+      </c>
+      <c r="K28" t="s">
+        <v>796</v>
+      </c>
+      <c r="L28" t="s">
+        <v>913</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E29" t="s">
+        <v>583</v>
+      </c>
+      <c r="F29" t="s">
+        <v>657</v>
+      </c>
+      <c r="G29" t="s">
+        <v>700</v>
+      </c>
+      <c r="H29" t="s">
+        <v>723</v>
+      </c>
+      <c r="J29" t="s">
+        <v>750</v>
+      </c>
+      <c r="K29" t="s">
+        <v>797</v>
+      </c>
+      <c r="L29" t="s">
+        <v>913</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" t="s">
+        <v>452</v>
+      </c>
+      <c r="E30" t="s">
+        <v>584</v>
+      </c>
+      <c r="F30" t="s">
+        <v>658</v>
+      </c>
+      <c r="G30" t="s">
+        <v>701</v>
+      </c>
+      <c r="H30" t="s">
+        <v>723</v>
+      </c>
+      <c r="J30" t="s">
+        <v>751</v>
+      </c>
+      <c r="K30" t="s">
+        <v>798</v>
+      </c>
+      <c r="L30" t="s">
+        <v>913</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" t="s">
+        <v>453</v>
+      </c>
+      <c r="E31" t="s">
+        <v>585</v>
+      </c>
+      <c r="F31" t="s">
+        <v>659</v>
+      </c>
+      <c r="G31" t="s">
+        <v>702</v>
+      </c>
+      <c r="H31" t="s">
+        <v>723</v>
+      </c>
+      <c r="J31" t="s">
+        <v>752</v>
+      </c>
+      <c r="K31" t="s">
+        <v>799</v>
+      </c>
+      <c r="L31" t="s">
+        <v>913</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" t="s">
+        <v>454</v>
+      </c>
+      <c r="E32" t="s">
+        <v>586</v>
+      </c>
+      <c r="F32" t="s">
+        <v>660</v>
+      </c>
+      <c r="G32" t="s">
+        <v>703</v>
+      </c>
+      <c r="H32" t="s">
+        <v>723</v>
+      </c>
+      <c r="J32" t="s">
+        <v>753</v>
+      </c>
+      <c r="K32" t="s">
+        <v>800</v>
+      </c>
+      <c r="L32" t="s">
+        <v>913</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" t="s">
+        <v>455</v>
+      </c>
+      <c r="F33" t="s">
+        <v>649</v>
+      </c>
+      <c r="G33" t="s">
+        <v>704</v>
+      </c>
+      <c r="H33" t="s">
+        <v>723</v>
+      </c>
+      <c r="J33" t="s">
+        <v>754</v>
+      </c>
+      <c r="K33" t="s">
+        <v>801</v>
+      </c>
+      <c r="L33" t="s">
+        <v>913</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" t="s">
+        <v>322</v>
+      </c>
+      <c r="D34" t="s">
+        <v>456</v>
+      </c>
+      <c r="E34" t="s">
+        <v>587</v>
+      </c>
+      <c r="F34" t="s">
+        <v>657</v>
+      </c>
+      <c r="G34" t="s">
+        <v>705</v>
+      </c>
+      <c r="H34" t="s">
+        <v>723</v>
+      </c>
+      <c r="J34" t="s">
+        <v>755</v>
+      </c>
+      <c r="K34" t="s">
+        <v>802</v>
+      </c>
+      <c r="L34" t="s">
+        <v>913</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" t="s">
+        <v>457</v>
+      </c>
+      <c r="E35" t="s">
+        <v>588</v>
+      </c>
+      <c r="F35" t="s">
+        <v>655</v>
+      </c>
+      <c r="G35" t="s">
+        <v>706</v>
+      </c>
+      <c r="H35" t="s">
+        <v>723</v>
+      </c>
+      <c r="J35" t="s">
+        <v>756</v>
+      </c>
+      <c r="K35" t="s">
+        <v>803</v>
+      </c>
+      <c r="L35" t="s">
+        <v>913</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
+      <c r="D36" t="s">
+        <v>458</v>
+      </c>
+      <c r="E36" t="s">
+        <v>589</v>
+      </c>
+      <c r="F36" t="s">
+        <v>655</v>
+      </c>
+      <c r="G36" t="s">
+        <v>707</v>
+      </c>
+      <c r="H36" t="s">
+        <v>723</v>
+      </c>
+      <c r="J36" t="s">
+        <v>757</v>
+      </c>
+      <c r="K36" t="s">
+        <v>804</v>
+      </c>
+      <c r="L36" t="s">
+        <v>913</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" t="s">
+        <v>459</v>
+      </c>
+      <c r="F37" t="s">
+        <v>661</v>
+      </c>
+      <c r="G37" t="s">
+        <v>708</v>
+      </c>
+      <c r="H37" t="s">
+        <v>723</v>
+      </c>
+      <c r="J37" t="s">
+        <v>758</v>
+      </c>
+      <c r="K37" t="s">
+        <v>805</v>
+      </c>
+      <c r="L37" t="s">
+        <v>913</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J6" t="s">
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>460</v>
+      </c>
+      <c r="E38" t="s">
+        <v>590</v>
+      </c>
+      <c r="F38" t="s">
+        <v>662</v>
+      </c>
+      <c r="G38" t="s">
+        <v>709</v>
+      </c>
+      <c r="H38" t="s">
+        <v>723</v>
+      </c>
+      <c r="J38" t="s">
+        <v>759</v>
+      </c>
+      <c r="K38" t="s">
+        <v>806</v>
+      </c>
+      <c r="L38" t="s">
+        <v>913</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>326</v>
+      </c>
+      <c r="D39" t="s">
+        <v>461</v>
+      </c>
+      <c r="F39" t="s">
+        <v>659</v>
+      </c>
+      <c r="H39" t="s">
+        <v>723</v>
+      </c>
+      <c r="J39" t="s">
+        <v>760</v>
+      </c>
+      <c r="K39" t="s">
+        <v>807</v>
+      </c>
+      <c r="L39" t="s">
+        <v>913</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K6" t="s">
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" t="s">
+        <v>462</v>
+      </c>
+      <c r="E40" t="s">
+        <v>591</v>
+      </c>
+      <c r="F40" t="s">
+        <v>663</v>
+      </c>
+      <c r="G40" t="s">
+        <v>710</v>
+      </c>
+      <c r="H40" t="s">
+        <v>739</v>
+      </c>
+      <c r="J40" t="s">
+        <v>761</v>
+      </c>
+      <c r="K40" t="s">
+        <v>808</v>
+      </c>
+      <c r="L40" t="s">
+        <v>913</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" t="s">
+        <v>328</v>
+      </c>
+      <c r="D41" t="s">
+        <v>463</v>
+      </c>
+      <c r="F41" t="s">
+        <v>664</v>
+      </c>
+      <c r="G41" t="s">
+        <v>711</v>
+      </c>
+      <c r="H41" t="s">
+        <v>723</v>
+      </c>
+      <c r="J41" t="s">
+        <v>762</v>
+      </c>
+      <c r="K41" t="s">
+        <v>809</v>
+      </c>
+      <c r="L41" t="s">
+        <v>913</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E42" t="s">
+        <v>592</v>
+      </c>
+      <c r="F42" t="s">
+        <v>665</v>
+      </c>
+      <c r="G42" t="s">
+        <v>712</v>
+      </c>
+      <c r="H42" t="s">
+        <v>723</v>
+      </c>
+      <c r="J42" t="s">
+        <v>763</v>
+      </c>
+      <c r="K42" t="s">
+        <v>810</v>
+      </c>
+      <c r="L42" t="s">
+        <v>913</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" t="s">
+        <v>465</v>
+      </c>
+      <c r="E43" t="s">
+        <v>593</v>
+      </c>
+      <c r="F43" t="s">
+        <v>657</v>
+      </c>
+      <c r="G43" t="s">
+        <v>713</v>
+      </c>
+      <c r="H43" t="s">
+        <v>723</v>
+      </c>
+      <c r="J43" t="s">
+        <v>764</v>
+      </c>
+      <c r="K43" t="s">
+        <v>811</v>
+      </c>
+      <c r="L43" t="s">
+        <v>913</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" t="s">
+        <v>466</v>
+      </c>
+      <c r="E44" t="s">
+        <v>594</v>
+      </c>
+      <c r="F44" t="s">
+        <v>666</v>
+      </c>
+      <c r="G44" t="s">
+        <v>714</v>
+      </c>
+      <c r="H44" t="s">
+        <v>723</v>
+      </c>
+      <c r="J44" t="s">
+        <v>765</v>
+      </c>
+      <c r="K44" t="s">
+        <v>812</v>
+      </c>
+      <c r="L44" t="s">
+        <v>913</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s">
+      <c r="B45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45" t="s">
+        <v>467</v>
+      </c>
+      <c r="F45" t="s">
+        <v>667</v>
+      </c>
+      <c r="G45" t="s">
+        <v>715</v>
+      </c>
+      <c r="H45" t="s">
+        <v>723</v>
+      </c>
+      <c r="J45" t="s">
+        <v>766</v>
+      </c>
+      <c r="K45" t="s">
+        <v>813</v>
+      </c>
+      <c r="L45" t="s">
+        <v>913</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" t="s">
+        <v>333</v>
+      </c>
+      <c r="D46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E46" t="s">
+        <v>595</v>
+      </c>
+      <c r="F46" t="s">
+        <v>649</v>
+      </c>
+      <c r="G46" t="s">
+        <v>716</v>
+      </c>
+      <c r="H46" t="s">
+        <v>723</v>
+      </c>
+      <c r="J46" t="s">
+        <v>767</v>
+      </c>
+      <c r="K46" t="s">
+        <v>814</v>
+      </c>
+      <c r="L46" t="s">
+        <v>913</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" t="s">
+        <v>469</v>
+      </c>
+      <c r="E47" t="s">
+        <v>596</v>
+      </c>
+      <c r="F47" t="s">
+        <v>658</v>
+      </c>
+      <c r="H47" t="s">
+        <v>723</v>
+      </c>
+      <c r="K47" t="s">
+        <v>815</v>
+      </c>
+      <c r="L47" t="s">
+        <v>913</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" t="s">
+        <v>335</v>
+      </c>
+      <c r="D48" t="s">
+        <v>448</v>
+      </c>
+      <c r="F48" t="s">
+        <v>649</v>
+      </c>
+      <c r="G48" t="s">
+        <v>717</v>
+      </c>
+      <c r="H48" t="s">
+        <v>723</v>
+      </c>
+      <c r="J48" t="s">
+        <v>768</v>
+      </c>
+      <c r="K48" t="s">
+        <v>816</v>
+      </c>
+      <c r="L48" t="s">
+        <v>913</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" t="s">
+        <v>470</v>
+      </c>
+      <c r="E49" t="s">
+        <v>597</v>
+      </c>
+      <c r="F49" t="s">
+        <v>668</v>
+      </c>
+      <c r="G49" t="s">
+        <v>718</v>
+      </c>
+      <c r="H49" t="s">
+        <v>723</v>
+      </c>
+      <c r="J49" t="s">
+        <v>769</v>
+      </c>
+      <c r="K49" t="s">
+        <v>817</v>
+      </c>
+      <c r="L49" t="s">
+        <v>913</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" t="s">
+        <v>337</v>
+      </c>
+      <c r="D50" t="s">
+        <v>471</v>
+      </c>
+      <c r="E50" t="s">
+        <v>598</v>
+      </c>
+      <c r="F50" t="s">
+        <v>651</v>
+      </c>
+      <c r="G50" t="s">
+        <v>719</v>
+      </c>
+      <c r="H50" t="s">
+        <v>723</v>
+      </c>
+      <c r="J50" t="s">
+        <v>770</v>
+      </c>
+      <c r="K50" t="s">
+        <v>818</v>
+      </c>
+      <c r="L50" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" t="s">
+        <v>472</v>
+      </c>
+      <c r="E51" t="s">
+        <v>599</v>
+      </c>
+      <c r="F51" t="s">
+        <v>669</v>
+      </c>
+      <c r="G51" t="s">
+        <v>720</v>
+      </c>
+      <c r="H51" t="s">
+        <v>723</v>
+      </c>
+      <c r="K51" t="s">
+        <v>819</v>
+      </c>
+      <c r="L51" t="s">
+        <v>913</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" t="s">
+        <v>454</v>
+      </c>
+      <c r="E52" t="s">
+        <v>586</v>
+      </c>
+      <c r="F52" t="s">
+        <v>660</v>
+      </c>
+      <c r="G52" t="s">
+        <v>703</v>
+      </c>
+      <c r="H52" t="s">
+        <v>723</v>
+      </c>
+      <c r="J52" t="s">
+        <v>753</v>
+      </c>
+      <c r="K52" t="s">
+        <v>800</v>
+      </c>
+      <c r="L52" t="s">
+        <v>913</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" t="s">
+        <v>455</v>
+      </c>
+      <c r="F53" t="s">
+        <v>649</v>
+      </c>
+      <c r="G53" t="s">
+        <v>704</v>
+      </c>
+      <c r="H53" t="s">
+        <v>723</v>
+      </c>
+      <c r="J53" t="s">
+        <v>754</v>
+      </c>
+      <c r="K53" t="s">
+        <v>801</v>
+      </c>
+      <c r="L53" t="s">
+        <v>913</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>334</v>
+      </c>
+      <c r="D54" t="s">
+        <v>469</v>
+      </c>
+      <c r="E54" t="s">
+        <v>596</v>
+      </c>
+      <c r="F54" t="s">
+        <v>658</v>
+      </c>
+      <c r="H54" t="s">
+        <v>723</v>
+      </c>
+      <c r="K54" t="s">
+        <v>815</v>
+      </c>
+      <c r="L54" t="s">
+        <v>913</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" t="s">
+        <v>472</v>
+      </c>
+      <c r="E55" t="s">
+        <v>599</v>
+      </c>
+      <c r="F55" t="s">
+        <v>669</v>
+      </c>
+      <c r="G55" t="s">
+        <v>720</v>
+      </c>
+      <c r="H55" t="s">
+        <v>723</v>
+      </c>
+      <c r="K55" t="s">
+        <v>819</v>
+      </c>
+      <c r="L55" t="s">
+        <v>913</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" t="s">
+        <v>339</v>
+      </c>
+      <c r="D56" t="s">
+        <v>473</v>
+      </c>
+      <c r="E56" t="s">
+        <v>600</v>
+      </c>
+      <c r="F56" t="s">
+        <v>663</v>
+      </c>
+      <c r="G56" t="s">
+        <v>721</v>
+      </c>
+      <c r="H56" t="s">
+        <v>723</v>
+      </c>
+      <c r="J56" t="s">
+        <v>771</v>
+      </c>
+      <c r="K56" t="s">
+        <v>820</v>
+      </c>
+      <c r="L56" t="s">
+        <v>913</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" t="s">
+        <v>340</v>
+      </c>
+      <c r="D57" t="s">
+        <v>474</v>
+      </c>
+      <c r="E57" t="s">
+        <v>601</v>
+      </c>
+      <c r="F57" t="s">
+        <v>657</v>
+      </c>
+      <c r="H57" t="s">
+        <v>723</v>
+      </c>
+      <c r="K57" t="s">
+        <v>821</v>
+      </c>
+      <c r="L57" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" t="s">
+        <v>341</v>
+      </c>
+      <c r="D58" t="s">
+        <v>475</v>
+      </c>
+      <c r="E58" t="s">
+        <v>602</v>
+      </c>
+      <c r="F58" t="s">
+        <v>649</v>
+      </c>
+      <c r="H58" t="s">
+        <v>723</v>
+      </c>
+      <c r="K58" t="s">
+        <v>822</v>
+      </c>
+      <c r="L58" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s">
+        <v>342</v>
+      </c>
+      <c r="D59" t="s">
+        <v>476</v>
+      </c>
+      <c r="E59" t="s">
+        <v>603</v>
+      </c>
+      <c r="F59" t="s">
+        <v>670</v>
+      </c>
+      <c r="H59" t="s">
+        <v>723</v>
+      </c>
+      <c r="K59" t="s">
+        <v>823</v>
+      </c>
+      <c r="L59" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" t="s">
+        <v>343</v>
+      </c>
+      <c r="D60" t="s">
+        <v>477</v>
+      </c>
+      <c r="E60" t="s">
+        <v>604</v>
+      </c>
+      <c r="F60" t="s">
+        <v>656</v>
+      </c>
+      <c r="H60" t="s">
+        <v>740</v>
+      </c>
+      <c r="K60" t="s">
+        <v>824</v>
+      </c>
+      <c r="L60" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" t="s">
+        <v>344</v>
+      </c>
+      <c r="D61" t="s">
+        <v>478</v>
+      </c>
+      <c r="E61" t="s">
+        <v>605</v>
+      </c>
+      <c r="F61" t="s">
+        <v>666</v>
+      </c>
+      <c r="H61" t="s">
+        <v>723</v>
+      </c>
+      <c r="K61" t="s">
+        <v>825</v>
+      </c>
+      <c r="L61" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" t="s">
+        <v>345</v>
+      </c>
+      <c r="D62" t="s">
+        <v>479</v>
+      </c>
+      <c r="E62" t="s">
+        <v>606</v>
+      </c>
+      <c r="F62" t="s">
+        <v>671</v>
+      </c>
+      <c r="H62" t="s">
+        <v>723</v>
+      </c>
+      <c r="K62" t="s">
+        <v>826</v>
+      </c>
+      <c r="L62" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" t="s">
+        <v>346</v>
+      </c>
+      <c r="D63" t="s">
+        <v>480</v>
+      </c>
+      <c r="E63" t="s">
+        <v>607</v>
+      </c>
+      <c r="F63" t="s">
+        <v>655</v>
+      </c>
+      <c r="H63" t="s">
+        <v>723</v>
+      </c>
+      <c r="K63" t="s">
+        <v>827</v>
+      </c>
+      <c r="L63" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" t="s">
+        <v>481</v>
+      </c>
+      <c r="E64" t="s">
+        <v>608</v>
+      </c>
+      <c r="F64" t="s">
+        <v>650</v>
+      </c>
+      <c r="H64" t="s">
+        <v>723</v>
+      </c>
+      <c r="K64" t="s">
+        <v>828</v>
+      </c>
+      <c r="L64" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" t="s">
+        <v>348</v>
+      </c>
+      <c r="D65" t="s">
+        <v>482</v>
+      </c>
+      <c r="F65" t="s">
+        <v>672</v>
+      </c>
+      <c r="H65" t="s">
+        <v>723</v>
+      </c>
+      <c r="K65" t="s">
+        <v>829</v>
+      </c>
+      <c r="L65" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" t="s">
+        <v>349</v>
+      </c>
+      <c r="D66" t="s">
+        <v>483</v>
+      </c>
+      <c r="F66" t="s">
+        <v>664</v>
+      </c>
+      <c r="H66" t="s">
+        <v>723</v>
+      </c>
+      <c r="K66" t="s">
+        <v>830</v>
+      </c>
+      <c r="L66" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>350</v>
+      </c>
+      <c r="D67" t="s">
+        <v>484</v>
+      </c>
+      <c r="F67" t="s">
+        <v>673</v>
+      </c>
+      <c r="H67" t="s">
+        <v>723</v>
+      </c>
+      <c r="K67" t="s">
+        <v>831</v>
+      </c>
+      <c r="L67" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" t="s">
+        <v>351</v>
+      </c>
+      <c r="D68" t="s">
+        <v>485</v>
+      </c>
+      <c r="E68" t="s">
+        <v>609</v>
+      </c>
+      <c r="F68" t="s">
+        <v>655</v>
+      </c>
+      <c r="H68" t="s">
+        <v>723</v>
+      </c>
+      <c r="K68" t="s">
+        <v>832</v>
+      </c>
+      <c r="L68" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>352</v>
+      </c>
+      <c r="D69" t="s">
+        <v>486</v>
+      </c>
+      <c r="F69" t="s">
+        <v>649</v>
+      </c>
+      <c r="H69" t="s">
+        <v>723</v>
+      </c>
+      <c r="K69" t="s">
+        <v>833</v>
+      </c>
+      <c r="L69" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" t="s">
+        <v>353</v>
+      </c>
+      <c r="D70" t="s">
+        <v>487</v>
+      </c>
+      <c r="E70" t="s">
+        <v>610</v>
+      </c>
+      <c r="F70" t="s">
+        <v>649</v>
+      </c>
+      <c r="H70" t="s">
+        <v>723</v>
+      </c>
+      <c r="K70" t="s">
+        <v>834</v>
+      </c>
+      <c r="L70" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" t="s">
+        <v>354</v>
+      </c>
+      <c r="D71" t="s">
+        <v>488</v>
+      </c>
+      <c r="E71" t="s">
+        <v>611</v>
+      </c>
+      <c r="F71" t="s">
+        <v>674</v>
+      </c>
+      <c r="H71" t="s">
+        <v>723</v>
+      </c>
+      <c r="K71" t="s">
+        <v>835</v>
+      </c>
+      <c r="L71" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" t="s">
+        <v>355</v>
+      </c>
+      <c r="D72" t="s">
+        <v>489</v>
+      </c>
+      <c r="E72" t="s">
+        <v>612</v>
+      </c>
+      <c r="F72" t="s">
+        <v>655</v>
+      </c>
+      <c r="H72" t="s">
+        <v>723</v>
+      </c>
+      <c r="K72" t="s">
+        <v>836</v>
+      </c>
+      <c r="L72" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s">
+        <v>356</v>
+      </c>
+      <c r="D73" t="s">
+        <v>490</v>
+      </c>
+      <c r="F73" t="s">
+        <v>666</v>
+      </c>
+      <c r="H73" t="s">
+        <v>723</v>
+      </c>
+      <c r="K73" t="s">
+        <v>837</v>
+      </c>
+      <c r="L73" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>357</v>
+      </c>
+      <c r="D74" t="s">
+        <v>491</v>
+      </c>
+      <c r="F74" t="s">
+        <v>675</v>
+      </c>
+      <c r="H74" t="s">
+        <v>723</v>
+      </c>
+      <c r="K74" t="s">
+        <v>838</v>
+      </c>
+      <c r="L74" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" t="s">
+        <v>358</v>
+      </c>
+      <c r="D75" t="s">
+        <v>492</v>
+      </c>
+      <c r="E75" t="s">
+        <v>613</v>
+      </c>
+      <c r="F75" t="s">
+        <v>649</v>
+      </c>
+      <c r="H75" t="s">
+        <v>723</v>
+      </c>
+      <c r="K75" t="s">
+        <v>839</v>
+      </c>
+      <c r="L75" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" t="s">
+        <v>359</v>
+      </c>
+      <c r="D76" t="s">
+        <v>493</v>
+      </c>
+      <c r="F76" t="s">
+        <v>666</v>
+      </c>
+      <c r="H76" t="s">
+        <v>723</v>
+      </c>
+      <c r="K76" t="s">
+        <v>840</v>
+      </c>
+      <c r="L76" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" t="s">
+        <v>360</v>
+      </c>
+      <c r="D77" t="s">
+        <v>494</v>
+      </c>
+      <c r="F77" t="s">
+        <v>657</v>
+      </c>
+      <c r="H77" t="s">
+        <v>723</v>
+      </c>
+      <c r="K77" t="s">
+        <v>841</v>
+      </c>
+      <c r="L77" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78" t="s">
+        <v>488</v>
+      </c>
+      <c r="F78" t="s">
+        <v>659</v>
+      </c>
+      <c r="H78" t="s">
+        <v>723</v>
+      </c>
+      <c r="K78" t="s">
+        <v>842</v>
+      </c>
+      <c r="L78" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" t="s">
+        <v>362</v>
+      </c>
+      <c r="D79" t="s">
+        <v>495</v>
+      </c>
+      <c r="F79" t="s">
+        <v>666</v>
+      </c>
+      <c r="H79" t="s">
+        <v>723</v>
+      </c>
+      <c r="K79" t="s">
+        <v>843</v>
+      </c>
+      <c r="L79" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" t="s">
+        <v>363</v>
+      </c>
+      <c r="D80" t="s">
+        <v>496</v>
+      </c>
+      <c r="F80" t="s">
+        <v>676</v>
+      </c>
+      <c r="H80" t="s">
+        <v>723</v>
+      </c>
+      <c r="K80" t="s">
+        <v>844</v>
+      </c>
+      <c r="L80" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" t="s">
+        <v>364</v>
+      </c>
+      <c r="D81" t="s">
+        <v>497</v>
+      </c>
+      <c r="F81" t="s">
+        <v>649</v>
+      </c>
+      <c r="H81" t="s">
+        <v>723</v>
+      </c>
+      <c r="K81" t="s">
+        <v>845</v>
+      </c>
+      <c r="L81" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" t="s">
+        <v>365</v>
+      </c>
+      <c r="D82" t="s">
+        <v>498</v>
+      </c>
+      <c r="E82" t="s">
+        <v>614</v>
+      </c>
+      <c r="F82" t="s">
+        <v>666</v>
+      </c>
+      <c r="H82" t="s">
+        <v>723</v>
+      </c>
+      <c r="K82" t="s">
+        <v>846</v>
+      </c>
+      <c r="L82" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>366</v>
+      </c>
+      <c r="D83" t="s">
+        <v>499</v>
+      </c>
+      <c r="F83" t="s">
+        <v>649</v>
+      </c>
+      <c r="H83" t="s">
+        <v>723</v>
+      </c>
+      <c r="K83" t="s">
+        <v>847</v>
+      </c>
+      <c r="L83" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" t="s">
+        <v>367</v>
+      </c>
+      <c r="D84" t="s">
+        <v>500</v>
+      </c>
+      <c r="F84" t="s">
+        <v>661</v>
+      </c>
+      <c r="H84" t="s">
+        <v>723</v>
+      </c>
+      <c r="K84" t="s">
+        <v>848</v>
+      </c>
+      <c r="L84" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" t="s">
+        <v>368</v>
+      </c>
+      <c r="D85" t="s">
+        <v>501</v>
+      </c>
+      <c r="F85" t="s">
+        <v>674</v>
+      </c>
+      <c r="H85" t="s">
+        <v>723</v>
+      </c>
+      <c r="K85" t="s">
+        <v>849</v>
+      </c>
+      <c r="L85" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" t="s">
+        <v>369</v>
+      </c>
+      <c r="D86" t="s">
+        <v>502</v>
+      </c>
+      <c r="F86" t="s">
+        <v>653</v>
+      </c>
+      <c r="H86" t="s">
+        <v>723</v>
+      </c>
+      <c r="K86" t="s">
+        <v>850</v>
+      </c>
+      <c r="L86" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" t="s">
+        <v>370</v>
+      </c>
+      <c r="D87" t="s">
+        <v>503</v>
+      </c>
+      <c r="E87" t="s">
+        <v>615</v>
+      </c>
+      <c r="F87" t="s">
+        <v>649</v>
+      </c>
+      <c r="H87" t="s">
+        <v>723</v>
+      </c>
+      <c r="K87" t="s">
+        <v>851</v>
+      </c>
+      <c r="L87" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D88" t="s">
+        <v>504</v>
+      </c>
+      <c r="F88" t="s">
+        <v>655</v>
+      </c>
+      <c r="H88" t="s">
+        <v>723</v>
+      </c>
+      <c r="K88" t="s">
+        <v>852</v>
+      </c>
+      <c r="L88" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" t="s">
+        <v>372</v>
+      </c>
+      <c r="D89" t="s">
+        <v>505</v>
+      </c>
+      <c r="F89" t="s">
+        <v>674</v>
+      </c>
+      <c r="H89" t="s">
+        <v>723</v>
+      </c>
+      <c r="K89" t="s">
+        <v>853</v>
+      </c>
+      <c r="L89" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" t="s">
+        <v>373</v>
+      </c>
+      <c r="D90" t="s">
+        <v>506</v>
+      </c>
+      <c r="F90" t="s">
+        <v>649</v>
+      </c>
+      <c r="H90" t="s">
+        <v>723</v>
+      </c>
+      <c r="K90" t="s">
+        <v>854</v>
+      </c>
+      <c r="L90" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>237</v>
+      </c>
+      <c r="C91" t="s">
+        <v>374</v>
+      </c>
+      <c r="D91" t="s">
+        <v>507</v>
+      </c>
+      <c r="F91" t="s">
+        <v>661</v>
+      </c>
+      <c r="H91" t="s">
+        <v>723</v>
+      </c>
+      <c r="K91" t="s">
+        <v>855</v>
+      </c>
+      <c r="L91" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" t="s">
+        <v>375</v>
+      </c>
+      <c r="D92" t="s">
+        <v>508</v>
+      </c>
+      <c r="E92" t="s">
+        <v>616</v>
+      </c>
+      <c r="F92" t="s">
+        <v>677</v>
+      </c>
+      <c r="H92" t="s">
+        <v>723</v>
+      </c>
+      <c r="K92" t="s">
+        <v>856</v>
+      </c>
+      <c r="L92" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" t="s">
+        <v>376</v>
+      </c>
+      <c r="D93" t="s">
+        <v>509</v>
+      </c>
+      <c r="F93" t="s">
+        <v>649</v>
+      </c>
+      <c r="H93" t="s">
+        <v>723</v>
+      </c>
+      <c r="K93" t="s">
+        <v>857</v>
+      </c>
+      <c r="L93" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" t="s">
+        <v>510</v>
+      </c>
+      <c r="E94" t="s">
+        <v>617</v>
+      </c>
+      <c r="F94" t="s">
+        <v>649</v>
+      </c>
+      <c r="H94" t="s">
+        <v>723</v>
+      </c>
+      <c r="K94" t="s">
+        <v>858</v>
+      </c>
+      <c r="L94" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" t="s">
+        <v>378</v>
+      </c>
+      <c r="D95" t="s">
+        <v>511</v>
+      </c>
+      <c r="E95" t="s">
+        <v>618</v>
+      </c>
+      <c r="F95" t="s">
+        <v>678</v>
+      </c>
+      <c r="H95" t="s">
+        <v>723</v>
+      </c>
+      <c r="K95" t="s">
+        <v>859</v>
+      </c>
+      <c r="L95" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" t="s">
+        <v>379</v>
+      </c>
+      <c r="D96" t="s">
+        <v>512</v>
+      </c>
+      <c r="E96" t="s">
+        <v>619</v>
+      </c>
+      <c r="F96" t="s">
+        <v>677</v>
+      </c>
+      <c r="H96" t="s">
+        <v>723</v>
+      </c>
+      <c r="K96" t="s">
+        <v>860</v>
+      </c>
+      <c r="L96" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>243</v>
+      </c>
+      <c r="C97" t="s">
+        <v>380</v>
+      </c>
+      <c r="D97" t="s">
+        <v>513</v>
+      </c>
+      <c r="F97" t="s">
+        <v>679</v>
+      </c>
+      <c r="H97" t="s">
+        <v>723</v>
+      </c>
+      <c r="K97" t="s">
+        <v>861</v>
+      </c>
+      <c r="L97" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>381</v>
+      </c>
+      <c r="D98" t="s">
+        <v>514</v>
+      </c>
+      <c r="F98" t="s">
+        <v>658</v>
+      </c>
+      <c r="H98" t="s">
+        <v>723</v>
+      </c>
+      <c r="K98" t="s">
+        <v>862</v>
+      </c>
+      <c r="L98" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" t="s">
+        <v>382</v>
+      </c>
+      <c r="D99" t="s">
+        <v>515</v>
+      </c>
+      <c r="F99" t="s">
+        <v>680</v>
+      </c>
+      <c r="H99" t="s">
+        <v>723</v>
+      </c>
+      <c r="K99" t="s">
+        <v>863</v>
+      </c>
+      <c r="L99" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>246</v>
+      </c>
+      <c r="C100" t="s">
+        <v>383</v>
+      </c>
+      <c r="D100" t="s">
+        <v>516</v>
+      </c>
+      <c r="F100" t="s">
+        <v>680</v>
+      </c>
+      <c r="H100" t="s">
+        <v>723</v>
+      </c>
+      <c r="K100" t="s">
+        <v>864</v>
+      </c>
+      <c r="L100" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" t="s">
+        <v>384</v>
+      </c>
+      <c r="D101" t="s">
+        <v>517</v>
+      </c>
+      <c r="E101" t="s">
+        <v>620</v>
+      </c>
+      <c r="F101" t="s">
+        <v>649</v>
+      </c>
+      <c r="H101" t="s">
+        <v>723</v>
+      </c>
+      <c r="K101" t="s">
+        <v>865</v>
+      </c>
+      <c r="L101" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" t="s">
+        <v>385</v>
+      </c>
+      <c r="D102" t="s">
+        <v>518</v>
+      </c>
+      <c r="E102" t="s">
+        <v>621</v>
+      </c>
+      <c r="F102" t="s">
+        <v>644</v>
+      </c>
+      <c r="H102" t="s">
+        <v>723</v>
+      </c>
+      <c r="K102" t="s">
+        <v>866</v>
+      </c>
+      <c r="L102" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" t="s">
+        <v>386</v>
+      </c>
+      <c r="D103" t="s">
+        <v>519</v>
+      </c>
+      <c r="F103" t="s">
+        <v>670</v>
+      </c>
+      <c r="H103" t="s">
+        <v>723</v>
+      </c>
+      <c r="K103" t="s">
+        <v>867</v>
+      </c>
+      <c r="L103" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" t="s">
+        <v>387</v>
+      </c>
+      <c r="D104" t="s">
+        <v>520</v>
+      </c>
+      <c r="E104" t="s">
+        <v>622</v>
+      </c>
+      <c r="F104" t="s">
+        <v>644</v>
+      </c>
+      <c r="H104" t="s">
+        <v>723</v>
+      </c>
+      <c r="K104" t="s">
+        <v>868</v>
+      </c>
+      <c r="L104" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" t="s">
+        <v>388</v>
+      </c>
+      <c r="D105" t="s">
+        <v>521</v>
+      </c>
+      <c r="F105" t="s">
+        <v>649</v>
+      </c>
+      <c r="H105" t="s">
+        <v>723</v>
+      </c>
+      <c r="K105" t="s">
+        <v>869</v>
+      </c>
+      <c r="L105" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>252</v>
+      </c>
+      <c r="C106" t="s">
+        <v>389</v>
+      </c>
+      <c r="D106" t="s">
+        <v>522</v>
+      </c>
+      <c r="E106" t="s">
+        <v>623</v>
+      </c>
+      <c r="F106" t="s">
+        <v>649</v>
+      </c>
+      <c r="H106" t="s">
+        <v>723</v>
+      </c>
+      <c r="K106" t="s">
+        <v>870</v>
+      </c>
+      <c r="L106" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" t="s">
+        <v>390</v>
+      </c>
+      <c r="D107" t="s">
+        <v>523</v>
+      </c>
+      <c r="F107" t="s">
+        <v>649</v>
+      </c>
+      <c r="H107" t="s">
+        <v>723</v>
+      </c>
+      <c r="K107" t="s">
+        <v>871</v>
+      </c>
+      <c r="L107" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" t="s">
+        <v>391</v>
+      </c>
+      <c r="D108" t="s">
+        <v>524</v>
+      </c>
+      <c r="F108" t="s">
+        <v>657</v>
+      </c>
+      <c r="H108" t="s">
+        <v>723</v>
+      </c>
+      <c r="K108" t="s">
+        <v>872</v>
+      </c>
+      <c r="L108" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" t="s">
+        <v>392</v>
+      </c>
+      <c r="D109" t="s">
+        <v>525</v>
+      </c>
+      <c r="E109" t="s">
+        <v>624</v>
+      </c>
+      <c r="F109" t="s">
+        <v>649</v>
+      </c>
+      <c r="H109" t="s">
+        <v>723</v>
+      </c>
+      <c r="K109" t="s">
+        <v>873</v>
+      </c>
+      <c r="L109" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" t="s">
+        <v>393</v>
+      </c>
+      <c r="D110" t="s">
+        <v>526</v>
+      </c>
+      <c r="E110" t="s">
+        <v>625</v>
+      </c>
+      <c r="F110" t="s">
+        <v>674</v>
+      </c>
+      <c r="H110" t="s">
+        <v>723</v>
+      </c>
+      <c r="K110" t="s">
+        <v>874</v>
+      </c>
+      <c r="L110" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>257</v>
+      </c>
+      <c r="C111" t="s">
+        <v>394</v>
+      </c>
+      <c r="D111" t="s">
+        <v>527</v>
+      </c>
+      <c r="F111" t="s">
+        <v>649</v>
+      </c>
+      <c r="H111" t="s">
+        <v>723</v>
+      </c>
+      <c r="K111" t="s">
+        <v>875</v>
+      </c>
+      <c r="L111" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" t="s">
+        <v>395</v>
+      </c>
+      <c r="D112" t="s">
+        <v>528</v>
+      </c>
+      <c r="E112" t="s">
+        <v>626</v>
+      </c>
+      <c r="F112" t="s">
+        <v>655</v>
+      </c>
+      <c r="H112" t="s">
+        <v>723</v>
+      </c>
+      <c r="K112" t="s">
+        <v>876</v>
+      </c>
+      <c r="L112" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>259</v>
+      </c>
+      <c r="C113" t="s">
+        <v>396</v>
+      </c>
+      <c r="D113" t="s">
+        <v>529</v>
+      </c>
+      <c r="F113" t="s">
+        <v>661</v>
+      </c>
+      <c r="H113" t="s">
+        <v>723</v>
+      </c>
+      <c r="K113" t="s">
+        <v>877</v>
+      </c>
+      <c r="L113" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" t="s">
+        <v>397</v>
+      </c>
+      <c r="D114" t="s">
+        <v>530</v>
+      </c>
+      <c r="F114" t="s">
+        <v>681</v>
+      </c>
+      <c r="H114" t="s">
+        <v>723</v>
+      </c>
+      <c r="K114" t="s">
+        <v>878</v>
+      </c>
+      <c r="L114" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" t="s">
+        <v>398</v>
+      </c>
+      <c r="D115" t="s">
+        <v>531</v>
+      </c>
+      <c r="F115" t="s">
+        <v>657</v>
+      </c>
+      <c r="H115" t="s">
+        <v>723</v>
+      </c>
+      <c r="K115" t="s">
+        <v>879</v>
+      </c>
+      <c r="L115" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" t="s">
+        <v>399</v>
+      </c>
+      <c r="D116" t="s">
+        <v>532</v>
+      </c>
+      <c r="F116" t="s">
+        <v>682</v>
+      </c>
+      <c r="H116" t="s">
+        <v>723</v>
+      </c>
+      <c r="K116" t="s">
+        <v>880</v>
+      </c>
+      <c r="L116" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" t="s">
+        <v>400</v>
+      </c>
+      <c r="D117" t="s">
+        <v>533</v>
+      </c>
+      <c r="E117" t="s">
+        <v>627</v>
+      </c>
+      <c r="F117" t="s">
+        <v>644</v>
+      </c>
+      <c r="H117" t="s">
+        <v>723</v>
+      </c>
+      <c r="K117" t="s">
+        <v>881</v>
+      </c>
+      <c r="L117" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" t="s">
+        <v>401</v>
+      </c>
+      <c r="D118" t="s">
+        <v>534</v>
+      </c>
+      <c r="E118" t="s">
+        <v>628</v>
+      </c>
+      <c r="F118" t="s">
+        <v>661</v>
+      </c>
+      <c r="H118" t="s">
+        <v>723</v>
+      </c>
+      <c r="K118" t="s">
+        <v>882</v>
+      </c>
+      <c r="L118" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" t="s">
+        <v>402</v>
+      </c>
+      <c r="D119" t="s">
+        <v>535</v>
+      </c>
+      <c r="F119" t="s">
+        <v>657</v>
+      </c>
+      <c r="H119" t="s">
+        <v>723</v>
+      </c>
+      <c r="K119" t="s">
+        <v>883</v>
+      </c>
+      <c r="L119" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" t="s">
+        <v>403</v>
+      </c>
+      <c r="D120" t="s">
+        <v>536</v>
+      </c>
+      <c r="F120" t="s">
+        <v>649</v>
+      </c>
+      <c r="H120" t="s">
+        <v>723</v>
+      </c>
+      <c r="K120" t="s">
+        <v>884</v>
+      </c>
+      <c r="L120" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" t="s">
+        <v>404</v>
+      </c>
+      <c r="D121" t="s">
+        <v>469</v>
+      </c>
+      <c r="E121" t="s">
+        <v>629</v>
+      </c>
+      <c r="F121" t="s">
+        <v>658</v>
+      </c>
+      <c r="H121" t="s">
+        <v>723</v>
+      </c>
+      <c r="K121" t="s">
+        <v>885</v>
+      </c>
+      <c r="L121" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" t="s">
+        <v>405</v>
+      </c>
+      <c r="D122" t="s">
+        <v>537</v>
+      </c>
+      <c r="F122" t="s">
+        <v>649</v>
+      </c>
+      <c r="H122" t="s">
+        <v>723</v>
+      </c>
+      <c r="K122" t="s">
+        <v>886</v>
+      </c>
+      <c r="L122" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" t="s">
+        <v>406</v>
+      </c>
+      <c r="D123" t="s">
+        <v>538</v>
+      </c>
+      <c r="F123" t="s">
+        <v>655</v>
+      </c>
+      <c r="H123" t="s">
+        <v>723</v>
+      </c>
+      <c r="K123" t="s">
+        <v>887</v>
+      </c>
+      <c r="L123" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" t="s">
+        <v>407</v>
+      </c>
+      <c r="D124" t="s">
+        <v>539</v>
+      </c>
+      <c r="E124" t="s">
+        <v>630</v>
+      </c>
+      <c r="F124" t="s">
+        <v>649</v>
+      </c>
+      <c r="H124" t="s">
+        <v>723</v>
+      </c>
+      <c r="K124" t="s">
+        <v>888</v>
+      </c>
+      <c r="L124" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>271</v>
+      </c>
+      <c r="C125" t="s">
+        <v>408</v>
+      </c>
+      <c r="D125" t="s">
+        <v>540</v>
+      </c>
+      <c r="F125" t="s">
+        <v>658</v>
+      </c>
+      <c r="H125" t="s">
+        <v>723</v>
+      </c>
+      <c r="K125" t="s">
+        <v>889</v>
+      </c>
+      <c r="L125" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="s">
+        <v>272</v>
+      </c>
+      <c r="C126" t="s">
+        <v>409</v>
+      </c>
+      <c r="D126" t="s">
+        <v>541</v>
+      </c>
+      <c r="F126" t="s">
+        <v>649</v>
+      </c>
+      <c r="H126" t="s">
+        <v>723</v>
+      </c>
+      <c r="K126" t="s">
+        <v>890</v>
+      </c>
+      <c r="L126" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" t="s">
+        <v>410</v>
+      </c>
+      <c r="D127" t="s">
+        <v>542</v>
+      </c>
+      <c r="E127" t="s">
+        <v>631</v>
+      </c>
+      <c r="F127" t="s">
+        <v>655</v>
+      </c>
+      <c r="H127" t="s">
+        <v>723</v>
+      </c>
+      <c r="K127" t="s">
+        <v>891</v>
+      </c>
+      <c r="L127" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>274</v>
+      </c>
+      <c r="C128" t="s">
+        <v>411</v>
+      </c>
+      <c r="D128" t="s">
+        <v>543</v>
+      </c>
+      <c r="E128" t="s">
+        <v>632</v>
+      </c>
+      <c r="F128" t="s">
+        <v>649</v>
+      </c>
+      <c r="H128" t="s">
+        <v>723</v>
+      </c>
+      <c r="K128" t="s">
+        <v>892</v>
+      </c>
+      <c r="L128" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>275</v>
+      </c>
+      <c r="C129" t="s">
+        <v>412</v>
+      </c>
+      <c r="D129" t="s">
+        <v>544</v>
+      </c>
+      <c r="E129" t="s">
+        <v>633</v>
+      </c>
+      <c r="F129" t="s">
+        <v>649</v>
+      </c>
+      <c r="G129" t="s">
+        <v>722</v>
+      </c>
+      <c r="H129" t="s">
+        <v>723</v>
+      </c>
+      <c r="K129" t="s">
+        <v>893</v>
+      </c>
+      <c r="L129" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="s">
+        <v>276</v>
+      </c>
+      <c r="C130" t="s">
+        <v>413</v>
+      </c>
+      <c r="D130" t="s">
+        <v>545</v>
+      </c>
+      <c r="F130" t="s">
+        <v>649</v>
+      </c>
+      <c r="H130" t="s">
+        <v>723</v>
+      </c>
+      <c r="K130" t="s">
+        <v>894</v>
+      </c>
+      <c r="L130" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" t="s">
+        <v>414</v>
+      </c>
+      <c r="D131" t="s">
+        <v>546</v>
+      </c>
+      <c r="E131" t="s">
+        <v>634</v>
+      </c>
+      <c r="F131" t="s">
+        <v>655</v>
+      </c>
+      <c r="H131" t="s">
+        <v>723</v>
+      </c>
+      <c r="K131" t="s">
+        <v>895</v>
+      </c>
+      <c r="L131" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D132" t="s">
+        <v>547</v>
+      </c>
+      <c r="E132" t="s">
+        <v>635</v>
+      </c>
+      <c r="F132" t="s">
+        <v>659</v>
+      </c>
+      <c r="H132" t="s">
+        <v>723</v>
+      </c>
+      <c r="K132" t="s">
+        <v>896</v>
+      </c>
+      <c r="L132" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>279</v>
+      </c>
+      <c r="C133" t="s">
+        <v>416</v>
+      </c>
+      <c r="D133" t="s">
+        <v>548</v>
+      </c>
+      <c r="E133" t="s">
+        <v>636</v>
+      </c>
+      <c r="F133" t="s">
+        <v>674</v>
+      </c>
+      <c r="H133" t="s">
+        <v>723</v>
+      </c>
+      <c r="K133" t="s">
+        <v>897</v>
+      </c>
+      <c r="L133" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" t="s">
+        <v>417</v>
+      </c>
+      <c r="D134" t="s">
+        <v>549</v>
+      </c>
+      <c r="F134" t="s">
+        <v>649</v>
+      </c>
+      <c r="H134" t="s">
+        <v>723</v>
+      </c>
+      <c r="K134" t="s">
+        <v>898</v>
+      </c>
+      <c r="L134" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" t="s">
+        <v>418</v>
+      </c>
+      <c r="D135" t="s">
+        <v>550</v>
+      </c>
+      <c r="F135" t="s">
+        <v>649</v>
+      </c>
+      <c r="H135" t="s">
+        <v>723</v>
+      </c>
+      <c r="K135" t="s">
+        <v>899</v>
+      </c>
+      <c r="L135" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>419</v>
+      </c>
+      <c r="D136" t="s">
+        <v>551</v>
+      </c>
+      <c r="E136" t="s">
+        <v>637</v>
+      </c>
+      <c r="F136" t="s">
+        <v>649</v>
+      </c>
+      <c r="H136" t="s">
+        <v>723</v>
+      </c>
+      <c r="K136" t="s">
+        <v>900</v>
+      </c>
+      <c r="L136" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" t="s">
+        <v>420</v>
+      </c>
+      <c r="D137" t="s">
+        <v>552</v>
+      </c>
+      <c r="E137" t="s">
+        <v>638</v>
+      </c>
+      <c r="F137" t="s">
+        <v>649</v>
+      </c>
+      <c r="H137" t="s">
+        <v>723</v>
+      </c>
+      <c r="K137" t="s">
+        <v>901</v>
+      </c>
+      <c r="L137" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" t="s">
+        <v>421</v>
+      </c>
+      <c r="D138" t="s">
+        <v>553</v>
+      </c>
+      <c r="F138" t="s">
+        <v>671</v>
+      </c>
+      <c r="H138" t="s">
+        <v>723</v>
+      </c>
+      <c r="K138" t="s">
+        <v>902</v>
+      </c>
+      <c r="L138" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" t="s">
+        <v>422</v>
+      </c>
+      <c r="D139" t="s">
+        <v>554</v>
+      </c>
+      <c r="F139" t="s">
+        <v>649</v>
+      </c>
+      <c r="H139" t="s">
+        <v>723</v>
+      </c>
+      <c r="K139" t="s">
+        <v>903</v>
+      </c>
+      <c r="L139" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="L140" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" t="s">
+        <v>286</v>
+      </c>
+      <c r="C141" t="s">
+        <v>423</v>
+      </c>
+      <c r="D141" t="s">
+        <v>555</v>
+      </c>
+      <c r="F141" t="s">
+        <v>681</v>
+      </c>
+      <c r="H141" t="s">
+        <v>723</v>
+      </c>
+      <c r="K141" t="s">
+        <v>904</v>
+      </c>
+      <c r="L141" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" t="s">
+        <v>424</v>
+      </c>
+      <c r="D142" t="s">
+        <v>556</v>
+      </c>
+      <c r="E142" t="s">
+        <v>639</v>
+      </c>
+      <c r="F142" t="s">
+        <v>649</v>
+      </c>
+      <c r="H142" t="s">
+        <v>723</v>
+      </c>
+      <c r="K142" t="s">
+        <v>905</v>
+      </c>
+      <c r="L142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" t="s">
+        <v>425</v>
+      </c>
+      <c r="D143" t="s">
+        <v>557</v>
+      </c>
+      <c r="E143" t="s">
+        <v>640</v>
+      </c>
+      <c r="F143" t="s">
+        <v>677</v>
+      </c>
+      <c r="H143" t="s">
+        <v>723</v>
+      </c>
+      <c r="K143" t="s">
+        <v>906</v>
+      </c>
+      <c r="L143" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="L144" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" t="s">
+        <v>426</v>
+      </c>
+      <c r="D145" t="s">
+        <v>558</v>
+      </c>
+      <c r="F145" t="s">
+        <v>683</v>
+      </c>
+      <c r="H145" t="s">
+        <v>723</v>
+      </c>
+      <c r="K145" t="s">
+        <v>907</v>
+      </c>
+      <c r="L145" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" t="s">
+        <v>427</v>
+      </c>
+      <c r="D146" t="s">
+        <v>559</v>
+      </c>
+      <c r="E146" t="s">
+        <v>641</v>
+      </c>
+      <c r="F146" t="s">
+        <v>684</v>
+      </c>
+      <c r="H146" t="s">
+        <v>723</v>
+      </c>
+      <c r="K146" t="s">
+        <v>908</v>
+      </c>
+      <c r="L146" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" t="s">
+        <v>428</v>
+      </c>
+      <c r="D147" t="s">
+        <v>560</v>
+      </c>
+      <c r="F147" t="s">
+        <v>658</v>
+      </c>
+      <c r="H147" t="s">
+        <v>723</v>
+      </c>
+      <c r="K147" t="s">
+        <v>909</v>
+      </c>
+      <c r="L147" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" t="s">
+        <v>429</v>
+      </c>
+      <c r="D148" t="s">
+        <v>561</v>
+      </c>
+      <c r="F148" t="s">
+        <v>685</v>
+      </c>
+      <c r="H148" t="s">
+        <v>723</v>
+      </c>
+      <c r="K148" t="s">
+        <v>910</v>
+      </c>
+      <c r="L148" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149" t="s">
+        <v>430</v>
+      </c>
+      <c r="D149" t="s">
+        <v>562</v>
+      </c>
+      <c r="F149" t="s">
+        <v>683</v>
+      </c>
+      <c r="H149" t="s">
+        <v>723</v>
+      </c>
+      <c r="K149" t="s">
+        <v>911</v>
+      </c>
+      <c r="L149" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" t="s">
+        <v>431</v>
+      </c>
+      <c r="D150" t="s">
+        <v>563</v>
+      </c>
+      <c r="F150" t="s">
+        <v>686</v>
+      </c>
+      <c r="H150" t="s">
+        <v>723</v>
+      </c>
+      <c r="K150" t="s">
+        <v>912</v>
+      </c>
+      <c r="L150" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -792,6 +7822,189 @@
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="A7" r:id="rId8"/>
+    <hyperlink ref="M7" r:id="rId9"/>
+    <hyperlink ref="A8" r:id="rId10"/>
+    <hyperlink ref="M8" r:id="rId11"/>
+    <hyperlink ref="A9" r:id="rId12"/>
+    <hyperlink ref="A10" r:id="rId13"/>
+    <hyperlink ref="A11" r:id="rId14"/>
+    <hyperlink ref="M11" r:id="rId15"/>
+    <hyperlink ref="A12" r:id="rId16"/>
+    <hyperlink ref="M12" r:id="rId17"/>
+    <hyperlink ref="A13" r:id="rId18"/>
+    <hyperlink ref="A14" r:id="rId19"/>
+    <hyperlink ref="A15" r:id="rId20"/>
+    <hyperlink ref="M15" r:id="rId21"/>
+    <hyperlink ref="A16" r:id="rId22"/>
+    <hyperlink ref="A17" r:id="rId23"/>
+    <hyperlink ref="M17" r:id="rId24"/>
+    <hyperlink ref="A18" r:id="rId25"/>
+    <hyperlink ref="M18" r:id="rId26"/>
+    <hyperlink ref="A19" r:id="rId27"/>
+    <hyperlink ref="A20" r:id="rId28"/>
+    <hyperlink ref="M20" r:id="rId29"/>
+    <hyperlink ref="A21" r:id="rId30"/>
+    <hyperlink ref="A22" r:id="rId31"/>
+    <hyperlink ref="A23" r:id="rId32"/>
+    <hyperlink ref="M23" r:id="rId33"/>
+    <hyperlink ref="A24" r:id="rId34"/>
+    <hyperlink ref="M24" r:id="rId35"/>
+    <hyperlink ref="A25" r:id="rId36"/>
+    <hyperlink ref="M25" r:id="rId37"/>
+    <hyperlink ref="A26" r:id="rId38"/>
+    <hyperlink ref="M26" r:id="rId39"/>
+    <hyperlink ref="A27" r:id="rId40"/>
+    <hyperlink ref="M27" r:id="rId41"/>
+    <hyperlink ref="A28" r:id="rId42"/>
+    <hyperlink ref="M28" r:id="rId43"/>
+    <hyperlink ref="A29" r:id="rId44"/>
+    <hyperlink ref="M29" r:id="rId45"/>
+    <hyperlink ref="A30" r:id="rId46"/>
+    <hyperlink ref="M30" r:id="rId47"/>
+    <hyperlink ref="A31" r:id="rId48"/>
+    <hyperlink ref="M31" r:id="rId49"/>
+    <hyperlink ref="A32" r:id="rId50"/>
+    <hyperlink ref="M32" r:id="rId51"/>
+    <hyperlink ref="A33" r:id="rId52"/>
+    <hyperlink ref="M33" r:id="rId53"/>
+    <hyperlink ref="A34" r:id="rId54"/>
+    <hyperlink ref="M34" r:id="rId55"/>
+    <hyperlink ref="A35" r:id="rId56"/>
+    <hyperlink ref="M35" r:id="rId57"/>
+    <hyperlink ref="A36" r:id="rId58"/>
+    <hyperlink ref="M36" r:id="rId59"/>
+    <hyperlink ref="A37" r:id="rId60"/>
+    <hyperlink ref="M37" r:id="rId61"/>
+    <hyperlink ref="A38" r:id="rId62"/>
+    <hyperlink ref="M38" r:id="rId63"/>
+    <hyperlink ref="A39" r:id="rId64"/>
+    <hyperlink ref="M39" r:id="rId65"/>
+    <hyperlink ref="A40" r:id="rId66"/>
+    <hyperlink ref="M40" r:id="rId67"/>
+    <hyperlink ref="A41" r:id="rId68"/>
+    <hyperlink ref="M41" r:id="rId69"/>
+    <hyperlink ref="A42" r:id="rId70"/>
+    <hyperlink ref="M42" r:id="rId71"/>
+    <hyperlink ref="A43" r:id="rId72"/>
+    <hyperlink ref="M43" r:id="rId73"/>
+    <hyperlink ref="A44" r:id="rId74"/>
+    <hyperlink ref="M44" r:id="rId75"/>
+    <hyperlink ref="A45" r:id="rId76"/>
+    <hyperlink ref="M45" r:id="rId77"/>
+    <hyperlink ref="A46" r:id="rId78"/>
+    <hyperlink ref="M46" r:id="rId79"/>
+    <hyperlink ref="A47" r:id="rId80"/>
+    <hyperlink ref="M47" r:id="rId81"/>
+    <hyperlink ref="A48" r:id="rId82"/>
+    <hyperlink ref="M48" r:id="rId83"/>
+    <hyperlink ref="A49" r:id="rId84"/>
+    <hyperlink ref="M49" r:id="rId85"/>
+    <hyperlink ref="A50" r:id="rId86"/>
+    <hyperlink ref="A51" r:id="rId87"/>
+    <hyperlink ref="M51" r:id="rId88"/>
+    <hyperlink ref="A52" r:id="rId89"/>
+    <hyperlink ref="M52" r:id="rId90"/>
+    <hyperlink ref="A53" r:id="rId91"/>
+    <hyperlink ref="M53" r:id="rId92"/>
+    <hyperlink ref="A54" r:id="rId93"/>
+    <hyperlink ref="M54" r:id="rId94"/>
+    <hyperlink ref="A55" r:id="rId95"/>
+    <hyperlink ref="M55" r:id="rId96"/>
+    <hyperlink ref="A56" r:id="rId97"/>
+    <hyperlink ref="M56" r:id="rId98"/>
+    <hyperlink ref="A57" r:id="rId99"/>
+    <hyperlink ref="A58" r:id="rId100"/>
+    <hyperlink ref="A59" r:id="rId101"/>
+    <hyperlink ref="A60" r:id="rId102"/>
+    <hyperlink ref="A61" r:id="rId103"/>
+    <hyperlink ref="A62" r:id="rId104"/>
+    <hyperlink ref="A63" r:id="rId105"/>
+    <hyperlink ref="A64" r:id="rId106"/>
+    <hyperlink ref="A65" r:id="rId107"/>
+    <hyperlink ref="A66" r:id="rId108"/>
+    <hyperlink ref="A67" r:id="rId109"/>
+    <hyperlink ref="A68" r:id="rId110"/>
+    <hyperlink ref="A69" r:id="rId111"/>
+    <hyperlink ref="A70" r:id="rId112"/>
+    <hyperlink ref="A71" r:id="rId113"/>
+    <hyperlink ref="A72" r:id="rId114"/>
+    <hyperlink ref="A73" r:id="rId115"/>
+    <hyperlink ref="A74" r:id="rId116"/>
+    <hyperlink ref="A75" r:id="rId117"/>
+    <hyperlink ref="A76" r:id="rId118"/>
+    <hyperlink ref="A77" r:id="rId119"/>
+    <hyperlink ref="A78" r:id="rId120"/>
+    <hyperlink ref="A79" r:id="rId121"/>
+    <hyperlink ref="A80" r:id="rId122"/>
+    <hyperlink ref="A81" r:id="rId123"/>
+    <hyperlink ref="A82" r:id="rId124"/>
+    <hyperlink ref="A83" r:id="rId125"/>
+    <hyperlink ref="A84" r:id="rId126"/>
+    <hyperlink ref="A85" r:id="rId127"/>
+    <hyperlink ref="A86" r:id="rId128"/>
+    <hyperlink ref="A87" r:id="rId129"/>
+    <hyperlink ref="A88" r:id="rId130"/>
+    <hyperlink ref="A89" r:id="rId131"/>
+    <hyperlink ref="A90" r:id="rId132"/>
+    <hyperlink ref="A91" r:id="rId133"/>
+    <hyperlink ref="A92" r:id="rId134"/>
+    <hyperlink ref="A93" r:id="rId135"/>
+    <hyperlink ref="A94" r:id="rId136"/>
+    <hyperlink ref="A95" r:id="rId137"/>
+    <hyperlink ref="A96" r:id="rId138"/>
+    <hyperlink ref="A97" r:id="rId139"/>
+    <hyperlink ref="A98" r:id="rId140"/>
+    <hyperlink ref="A99" r:id="rId141"/>
+    <hyperlink ref="A100" r:id="rId142"/>
+    <hyperlink ref="A101" r:id="rId143"/>
+    <hyperlink ref="A102" r:id="rId144"/>
+    <hyperlink ref="A103" r:id="rId145"/>
+    <hyperlink ref="A104" r:id="rId146"/>
+    <hyperlink ref="A105" r:id="rId147"/>
+    <hyperlink ref="A106" r:id="rId148"/>
+    <hyperlink ref="A107" r:id="rId149"/>
+    <hyperlink ref="A108" r:id="rId150"/>
+    <hyperlink ref="A109" r:id="rId151"/>
+    <hyperlink ref="A110" r:id="rId152"/>
+    <hyperlink ref="A111" r:id="rId153"/>
+    <hyperlink ref="A112" r:id="rId154"/>
+    <hyperlink ref="A113" r:id="rId155"/>
+    <hyperlink ref="A114" r:id="rId156"/>
+    <hyperlink ref="A115" r:id="rId157"/>
+    <hyperlink ref="A116" r:id="rId158"/>
+    <hyperlink ref="A117" r:id="rId159"/>
+    <hyperlink ref="A118" r:id="rId160"/>
+    <hyperlink ref="A119" r:id="rId161"/>
+    <hyperlink ref="A120" r:id="rId162"/>
+    <hyperlink ref="A121" r:id="rId163"/>
+    <hyperlink ref="A122" r:id="rId164"/>
+    <hyperlink ref="A123" r:id="rId165"/>
+    <hyperlink ref="A124" r:id="rId166"/>
+    <hyperlink ref="A125" r:id="rId167"/>
+    <hyperlink ref="A126" r:id="rId168"/>
+    <hyperlink ref="A127" r:id="rId169"/>
+    <hyperlink ref="A128" r:id="rId170"/>
+    <hyperlink ref="A129" r:id="rId171"/>
+    <hyperlink ref="A130" r:id="rId172"/>
+    <hyperlink ref="A131" r:id="rId173"/>
+    <hyperlink ref="A132" r:id="rId174"/>
+    <hyperlink ref="A133" r:id="rId175"/>
+    <hyperlink ref="A134" r:id="rId176"/>
+    <hyperlink ref="A135" r:id="rId177"/>
+    <hyperlink ref="A136" r:id="rId178"/>
+    <hyperlink ref="A137" r:id="rId179"/>
+    <hyperlink ref="A138" r:id="rId180"/>
+    <hyperlink ref="A139" r:id="rId181"/>
+    <hyperlink ref="A141" r:id="rId182"/>
+    <hyperlink ref="A142" r:id="rId183"/>
+    <hyperlink ref="A143" r:id="rId184"/>
+    <hyperlink ref="A145" r:id="rId185"/>
+    <hyperlink ref="A146" r:id="rId186"/>
+    <hyperlink ref="A147" r:id="rId187"/>
+    <hyperlink ref="A148" r:id="rId188"/>
+    <hyperlink ref="A149" r:id="rId189"/>
+    <hyperlink ref="A150" r:id="rId190"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
